--- a/Data Sets/Hotel Review Data Table.xlsx
+++ b/Data Sets/Hotel Review Data Table.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14205"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14205" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Dhaka Regency" sheetId="1" r:id="rId1"/>
+    <sheet name="Ascott The Residence Dhaka" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="1101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1944" uniqueCount="1856">
   <si>
     <t>No.</t>
   </si>
@@ -3338,6 +3339,2271 @@
   </si>
   <si>
     <t>while visiting family in dhaka i stayed at dhaka regency for two night, although the hotel is not near full capacity and still adding facilities the service i received was excellent and the room was very clean and spacious.  food was delicious and there are wide range availble.  i would definaely reccomend this hotel</t>
+  </si>
+  <si>
+    <t>Mahammad Jashim U</t>
+  </si>
+  <si>
+    <t>The Ascott the Residences Dhaka Very security n safety area at Baridha diplomatic zone.we feel very comfortable there.very nice and well decorated meeting venue.Service stuff are very professionally take care, Specially Mr Basher give US nice service.</t>
+  </si>
+  <si>
+    <t>We are made meeting at Nabiha Restaurant at Ascott the residence at Dhaka. Very good looking  n Nice decorated restaurant. Very good food n Excellent service. Specially Mr Bashers very cordial n good service provide us</t>
+  </si>
+  <si>
+    <t>Camper56773595934</t>
+  </si>
+  <si>
+    <t>I had a fantastic experience at Ascott the Residence Hotel in Baridhara, Dhaka. The hotel's location inside the diplomatic zone is ideal. The staff is incredibly professional and cordial, with a special shoutout to Mr. Bashar, who provided exceptional service. I highly recommend this place for a comfortable stay in Dhaka!</t>
+  </si>
+  <si>
+    <t>Zeeshan A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good food and service overall. Mr. Bashar was a good service provider to us during the business meeting. Our company has arranged our quarterly workshop here for the day and the overall experience has been good. </t>
+  </si>
+  <si>
+    <t>Jan R</t>
+  </si>
+  <si>
+    <t>Our stay started with a warm welcome by an exceptional friendly staff at the hotel reception, followed up with very nice and friendly people, good food and relaxing atmosphere in the breakfast lounge. Many thanks to Bashar, Sonia and Kanniya for making our breakfast time memorable and pleasant. And wearing the best cricket team shirts for the cricket world cup 2023. Best regards and good luck in WC from your friends in Norway. Jan &amp; Una ðŸ‡§ðŸ‡©ðŸ‡§ðŸ‡»  50/50</t>
+  </si>
+  <si>
+    <t>Moheed T</t>
+  </si>
+  <si>
+    <t>Mr. Bashar was great at his service!! I enjoyed my stay here. Itâ€™s  near to airport. I was assisted and served with hospitality. It was a wonderful experience here at this hotel. Besides, itâ€™s value for money.</t>
+  </si>
+  <si>
+    <t>MD A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ascott the residence dhaka really we feel my safety security home as like my own house, Room is very comfortable, Service stuff are very good specially Mr Bashar give me very easy to stay here , Very tidy n clean hotel </t>
+  </si>
+  <si>
+    <t>Fearless02119521869</t>
+  </si>
+  <si>
+    <t>Comfortable stay with good staff eg. Mr Bashar in the breakfast floor. Hotel in the diplomatic zone of Dhaka. Those who are seeking to stay in the Baridhara area for business or embassy workds can stay here.</t>
+  </si>
+  <si>
+    <t>Arafat I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The service was excellent. We were served by their colleague Mr Bashar, who was very hospitable and welcoming. The environment was perfect for business meeting. Highly recommended for anyone to visit them for authentic experience. </t>
+  </si>
+  <si>
+    <t>vijay t</t>
+  </si>
+  <si>
+    <t>Staff is very  nice and take care of every need of the Guest. Mr. Bashar is once who has taken everything like I'm vegetarian so hotel provided me vegetarian food whenever I asked for it.  I always recommend this hotel to my friend</t>
+  </si>
+  <si>
+    <t>Niyam R</t>
+  </si>
+  <si>
+    <t>The hotel is very beautiful, the room is very tidy.  The bed is very comfortable.  The staff are all very accommodating.  Especially the room service is very good. Restaurant people are very good. They gave very good service. Abul Bashar is very good among them. He is very flexible.</t>
+  </si>
+  <si>
+    <t>raju a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good Stay ascott residence Hotel. We Are came Our Company Joyton Day Long programme at serenity Hall  Very good event Enjoy. Specially Mr Brasher give Service  at Nabiha restaurant at breakfasts  Thanks </t>
+  </si>
+  <si>
+    <t>Tin S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excellent service Mr. Bashar help to prepared special tea. Ascott the residence Dhaka I feel very comfortable n safety security as like my home Room was very good staying Food also good Service stuff make very easy </t>
+  </si>
+  <si>
+    <t>dominikus d</t>
+  </si>
+  <si>
+    <t>I have come over into Dhaka and visited several places for eating. As international traveller, eating is very important for us.The hotel have one of the best eatery at Dhaka. The chef Mr Basher, Azmal and Emon is really outdone himself by recreating all those delicious international cuisine in this hotel dining scene. The meats are tenders, the serving are done with meticulous attention, and the seasoning was optimized for the experience of international taste,not just catering to local tounge, creating perfect balance of taste which is very important. Hopefully for the next visit, ill be able to meet them again and have another delightful experience !</t>
+  </si>
+  <si>
+    <t>Auninda R</t>
+  </si>
+  <si>
+    <t>Really happy with the accomodation of the hotel. The hotel staff had a warm welcoming nature.  The food and other facilities were excellent. Morning breakfast buffet was really good and Mr. Bashar and the morning staff really helped a lot while we had our stay. Will definitely come back again. All in all, the hotel is located in the safest spot of the country. Will gladly recommend this place to anyone visiting Dhaka from outside.</t>
+  </si>
+  <si>
+    <t>Burjis Z</t>
+  </si>
+  <si>
+    <t>The staff at the Ascott was extremely hospitable and went out of their way to make you feel comfortable. Zannat, Basharr, Anowarr, Masud, Karniya, Disharri, Suvro, Tarik, Mehdi, Shafiq and allof the other staff members do a great job in creating a homely atmosphere.</t>
+  </si>
+  <si>
+    <t>sippakorn S</t>
+  </si>
+  <si>
+    <t>Very good and kind service. Espacially mr. Bashar. He has taken a very good care at the breakfast. The hotel is located in a very friendly neighborhood. Good place, people and service. I'd would surely visit this hotel again in my next trip.</t>
+  </si>
+  <si>
+    <t>Riben Singha P</t>
+  </si>
+  <si>
+    <t>Homely environment, nice service, Good food, safe environment, Mr. Bashar was very cordial. Safe place for expat personnel as they have scanning facility in front of the gate. Nice housekeeping from the hotel crewm</t>
+  </si>
+  <si>
+    <t>md k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The best things about the Ascott Residence Hotel Dhaka, An amazing teams whice ensure YOU  have your needs.Specially Mr Brasher Very professional and well known hospitality service.. Mir  Arfan and Ms Karnia gives Very good service at breakfast. Thanks team to residence. </t>
+  </si>
+  <si>
+    <t>Mahfuz T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very good service. Every staff were gender sensitive. Food quality was good. Room space was more than enough. Every Time manager and other responsible person asked what need and they provide the support. Should have a swimming pool. </t>
+  </si>
+  <si>
+    <t>Sayedur R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food was great, we had lunch with family. Ordered beef kadai, mutton biroyani etc. Mr Bashar served us with a smile. Nice ambiance and plesure experience.  If you're near Baridhara, you can visit or stay here. good place for friends  and family.  </t>
+  </si>
+  <si>
+    <t>Somvob F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Super management. I'm highly happy with is and specially thanks to  AbuBakor Munsi. He is a nice man and caring.  All the best Ascott Dhaka.this hotel is very clean and staff all friendly, i will come back Again. Thanks </t>
+  </si>
+  <si>
+    <t>Leo S</t>
+  </si>
+  <si>
+    <t>Ascottt the residenceh hotel i am very happy with there hospitality service    Specially Mr Basher very good service provide us  Mr Mehedy also givehelping  good support  Room n restaurant good n nice decoration We  are happy</t>
+  </si>
+  <si>
+    <t>Hassan Raza P</t>
+  </si>
+  <si>
+    <t>Thanks Ascott resident hotel Dhaka Baridhara I have nice experience, excellent service behaviour all staff, accommodation is excellent thanks again Ascott resident. Food was good one staf member Mr Bashir good service in breakfast time thanks.</t>
+  </si>
+  <si>
+    <t>Climber10213485430</t>
+  </si>
+  <si>
+    <t>Alcott the residents Dhaka i's a Very Safety  and security zone in Baridhara diplomatic. There was i fell Very comfortable. Very Clean nice organised hotel.Buffet breakfast really good. Service stuff Specially Mr Basher give special service  us</t>
+  </si>
+  <si>
+    <t>Shaporan m</t>
+  </si>
+  <si>
+    <t>I am happy  to good Service, Nice and comfortable enjoy with Ascott Residence Dhaka. Very good food and service  Specially Mr Brasher give me Very easy to stay.I will come Again. Good safety n Very clean hotel.</t>
+  </si>
+  <si>
+    <t>Lo W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very good service and has a nice food in restaurants. Specially for Mr Bashan and Karnia Mehede give us good service in all time. Room is very clean and Hotel area was very safety for me and my friend. </t>
+  </si>
+  <si>
+    <t>AHASANUL A</t>
+  </si>
+  <si>
+    <t>If you want to hold a small to medium range meeting they have a great meeting space. If you want to have a business meeting with great food. This place is what you are looking for. Ask for Bashar to get even great service.</t>
+  </si>
+  <si>
+    <t>Odyssey58539904639</t>
+  </si>
+  <si>
+    <t>The best thing about the place is it's staff. An amazing team which ensures you have a great experience and stay. People like Bashar in the restaurant go beyond the call of duty to take care of your needs.</t>
+  </si>
+  <si>
+    <t>Dwaipayan Dutta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am a very frequent visitor to this hotel. I am from Kolkata and I used to come to Dhaka very frequently and mostly I prefer to stay at Ascott The Residence. The food, comfort at the room is very satisfactory. Also, the sincere hospitality of the staff like Habib Bhai made me feel more at ease. </t>
+  </si>
+  <si>
+    <t>Nirav D</t>
+  </si>
+  <si>
+    <t>Good food at Nabihah Restaurant and Cafe and great service by Mr Basher &amp; Mr Emon, Ascott hotel where it's located is in a calm and peaceful part of the diplomatic enclave, no noise pollution and a very safe area to stay in. Try the prawn malai curry and seasonal fruit cocktail, it was delicious.</t>
+  </si>
+  <si>
+    <t>Enrique</t>
+  </si>
+  <si>
+    <t>Comfortable hotel with very attentive service. The location is in a diplomatic area, away from commercial. Besides breakfast, we ate our dinners at the hotel. The food was very tasty with international and local dishes available.</t>
+  </si>
+  <si>
+    <t>Sreekanth A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excellent Hotel!! Nice place to dine too.. particularly the Sky top restaurant..Cordial staff and in particular I liked the hospitality and friendly guidance given by one of the Hotel staff named Mr Anowar; a Room Attendant...who took me on a  tour in and around the Hotel...and it's facilities... </t>
+  </si>
+  <si>
+    <t>Tanmoy M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It was an amazing hospitality in a business event which was wonderfully organized by Ascott the Residence Dhaka. Special service by Mr. Basher, Mr. Mehedi and thier outstanding team. Thank You so very to all. </t>
+  </si>
+  <si>
+    <t>Ivan G</t>
+  </si>
+  <si>
+    <t>Very good hotel! The staff are very nice and helpful. They always ask how I am and are always game for a good conversation. They always make sure that I am taken care of. Props especially to Habib for the great service!</t>
+  </si>
+  <si>
+    <t>Raihan A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ascott the residence Dhaka  Mr. Basar was so cordial in response.  He serviced in the Japan Embassy Programme. His behaviour and service are too good. He is very active  and great in work  I wish him good luck. </t>
+  </si>
+  <si>
+    <t>Venture01422446700</t>
+  </si>
+  <si>
+    <t>Excellent food, ambience, got tremendous service from Mehedi, Basar, Karnia, Khairul at Japan Embassy. Food &amp; beverage was great, outdoor catering is nice to have. Wish all the best to Ascott Palace,.</t>
+  </si>
+  <si>
+    <t>liu D</t>
+  </si>
+  <si>
+    <t>good, Roman, good person. I have a good time in the hotel ï¼Very good serviceï¼The hotel environment is good, with spacious rooms and a delicious breakfast.Room service is always prompt and attentive. In Bangladesh, it makes me feel very happy.</t>
+  </si>
+  <si>
+    <t>Hai P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I stayed  Ascott residence hotel very comfortable Room was very well decorates Very safety n security full area   I enjoy as like my home  I am very happy with Ascott Food was very nice Service stuff well very good service provide Specially Mr BÃ¡her Give nice support  Mr Emon Special make coffee </t>
+  </si>
+  <si>
+    <t>Abonindro Chand... K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hotel is very secured, safe and good hospitality. Mr. Basar is prepared a very nice coffee, he is also polite and gentle. Hotel is providing support as per the guest needs.  Resturant and its service is very good. There is several items found here .   All the best.  </t>
+  </si>
+  <si>
+    <t>Sightsee28807220391</t>
+  </si>
+  <si>
+    <t>We are came to business by Basudhara company,We stayed Ascott Residence,Hotel is very nice to stay.Very good security n safety area.we stay very comfortable.very good service stuff are very friendly.specially Mr Basher give us very easy to stayed.</t>
+  </si>
+  <si>
+    <t>Puguh Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am very happy to Ascott the residence Dhaka,I stayed here very comfortable.Very clean n oraganised hotel, Service stuff are frofesonal,specialy Mr Basher give me very good service at breakfast.He make coffee very nice </t>
+  </si>
+  <si>
+    <t>Very good accommodation and service. Very homey. The area is very safe and the food is very tasty. Especially Mr. Bashar and Abubakor. Thank you very much for always asking how I am and for the smiles every day.</t>
+  </si>
+  <si>
+    <t>saidul i</t>
+  </si>
+  <si>
+    <t>The Ascott Residence hotel was a wonderful experience in last visit. best hotel in a Dhaka city.Room was nice and very clean, food options was Very good &amp; breakfast is very markable and delicious.The staff are always smiles and welcoming the guests Specially Mr. Shafiq  from Reception very helpful and  always look after me.The hotel surround also very nice and attractive.  I'm highly recommended Ascott the hotel Dhaka.</t>
+  </si>
+  <si>
+    <t>Tofael A</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I would definitely stay here again because, I would like to extend my appreciation to all staff specially Mr Shafiq and Mr. Abdullah on duty during our visit. his responsibility pleasant helpful nature made our stay even more enjoyable. His kind attentiveness to our needs and prompt assistance truly exemplified the epitome of exceptional service. Overall, the combination of the outstanding service, excellent facilities for reception, room, food, and the warm hospitality of your staff made our stay at Ascott Residence Hotel Dhaka.  I wholeheartedly recommend Ascott Hotel Dhaka.</t>
+  </si>
+  <si>
+    <t>Hector B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ascott the Residence, is a beautiful hotel  to visit in Dhaka. The breakfast is variety and delicious. The staff of the hotel have a good costumer service. I met Mr Bashar and Mr Emon that attended me very well in everything that I needed.  Full recommended. </t>
+  </si>
+  <si>
+    <t>Abhishek k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am very happy with ascott the residence.I stayed there my company Toshiba Very Nice hotel in Dhaka.room is very nice, Well decorat, Very security n safety area in Baridha.Service Stuff very good. Specially Mr Basher give us very to stay here . Thank you all </t>
+  </si>
+  <si>
+    <t>Lenin Martinez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The room is comfortable, the staff is super friendly and helpful. Thank you very much to Mr. Mehedi and Mr. Bashar for their help.  The hotel is clean, organized and the staff keeps it all the time in perfect state. </t>
+  </si>
+  <si>
+    <t>Joy Banik A</t>
+  </si>
+  <si>
+    <t>The Ascott the residence is in my opinion the best hotel in Bangladesh. I have stayed here before. The hotel service and staff are excellent The restaurant and food is superb and in particular, all staff from the cleaner to the manager are exceptional .Especially at the desk -Mr Shafiq , Habib ,Abdullah were very helpful .</t>
+  </si>
+  <si>
+    <t>Jabed H</t>
+  </si>
+  <si>
+    <t>Our stay was really lovely &amp; a comfortable room with air conditioning. The staff were delightful and the food was delicious. I would highly recommend this hotel. Particularly I have to mention that Mr Shafiq, Abdullah &amp; Islam were very helpful. Dhaka is a fantastic city with beautiful people &amp; Tranquil area</t>
+  </si>
+  <si>
+    <t>Getaway63468881809</t>
+  </si>
+  <si>
+    <t>The Hotel all good. The room is comfortable. Ascott The residence Dhaka is the best choice. Specially Mr.Bashar give very good service. Bakery in dinner area is very well. Coffee is excelent. Staff have a good servicemind.</t>
+  </si>
+  <si>
+    <t>Hiro T</t>
+  </si>
+  <si>
+    <t>ã€€ã€€i veryhappystaywithAscotttheresidence Daha.i sayed herecouplesday.Veryniceï½Žcomfortable.Servicestuffareverynice,SpeceillyMrBashergivemeverycomfortable,Aslo Mr Emonn.Ms Karnia.service good ,I comebackagain.</t>
+  </si>
+  <si>
+    <t>Tandin W</t>
+  </si>
+  <si>
+    <t>Peaceful location with caring staffs. Staffs are also flexible and accomodating to your requests. A part of the city -  Gulshan 2 is just across the street if you are after shopping. Worth the deal and i would want to come back.</t>
+  </si>
+  <si>
+    <t>Mahobul I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good in hospitality and management. Well behaved team and fellows who cared guest's requirements and tried to address their special need. I appreciate their efforts specially support servic staff Mr. Bashar who cared the event. </t>
+  </si>
+  <si>
+    <t>Kazi Faisal Bin S</t>
+  </si>
+  <si>
+    <t>Ascott is conveniently located news our office. Services, are outstanding. Mr Bashar has been very friendly and served us exceptionally well. Professionalism and service, really stands out. Safety and security is an added point, as it is located in Baridhara Diplomatic Zone.</t>
+  </si>
+  <si>
+    <t>Freedom26257460123</t>
+  </si>
+  <si>
+    <t>Excellent service, great hotel. Breakfast is impressive with brilliant service by Mr Bashar who makes you feel at home. The rooms are exquisite and staff happy to help anytime with a smile. Great location tok</t>
+  </si>
+  <si>
+    <t>Durdana K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extremely comfortable stay with a bunch of motivated and happy staff , always going out of the way to meet our needs . Very comfortable beds , clean , good food . Special thanks to Mr Tareq Salman   , Sonia and Bashar for making us feel at home . I will highly recommend Ascot if you are looking for a nice stay . </t>
+  </si>
+  <si>
+    <t>Sandeep K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food quality is good , with safety and security with hygienic lobby and room, excellent behaviour staff specially Mr Bashar, a good person , I feel free to contact any Indian food service as I need, i got, really appreciate </t>
+  </si>
+  <si>
+    <t>OnAir35950090898</t>
+  </si>
+  <si>
+    <t>excellent service from hotel staff (Bashar), nice place and atmosphere. I am visiting for business, the area is safe and comfortable. I recommend the hotels in the area. Dinner was good but I recommend more variety on the menu</t>
+  </si>
+  <si>
+    <t>jose  p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excellent hotel  I stay here long time.I am very Happy with Ascott the residence Hotel Dhaka..Mr. Bashar give me special service  He very well known this hospitality.Food is very  nice  Very saefty  area. </t>
+  </si>
+  <si>
+    <t>Mohammad S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Absolutely beautiful and very good hotel cannot complain about anything. Staff are very friendly and helful specially Mr. Shafiq (f,o) always help and look after me. Breakfast was  really delicious. Inshallah I will come back again. Restaurant staff are also helful. </t>
+  </si>
+  <si>
+    <t>Ahsanul Karim M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I recently had the pleasure of staying at this hotel where Mr. Shafikul served as the front desk manager. I must say, my experience at this hotel was greatly enhanced by his exceptional service and professional attitude. His top-notch customer service skills, professionalism, and unwavering dedication to guest satisfaction made my stay at the hotel truly memorable </t>
+  </si>
+  <si>
+    <t>Barnadin D</t>
+  </si>
+  <si>
+    <t>I visited here several times. I enjoyed staying here. Room and food is very good. Also hotel stuffs are very friendly. Specially Mr Bashar is a very humble person and I like his services. Overall I like Ascot the residence very much and recommend other also. Thank you.</t>
+  </si>
+  <si>
+    <t>Hasan S</t>
+  </si>
+  <si>
+    <t>Wonderful experiences with the ascott hotel Dhaka.  Restaurant food is assom, room was very net&amp; clean. Hotel check in &amp; check out is procedure is verybprofessional. Hotel all staff is Very friendly &amp; Help full.Mr. Shafiqul is one of them. Im strongly recommended ascott Hotel Dhaka best hotel in dhaka city.</t>
+  </si>
+  <si>
+    <t>Md R</t>
+  </si>
+  <si>
+    <t>Absolutely beautiful and very relaxing!! Cannot complain about anything. Very friendly and helpful all staff, specially Mr. Shafiq (Front office) always help &amp; look after me.We took the all inclusive deal so breakfast, lunch and dinner was great in Nabihah restaurant! Also Sakura Japanese restaurant ðŸ¡hade a great a flover with us. Will highly reccommend to anyone!!</t>
+  </si>
+  <si>
+    <t>Kazi masud B</t>
+  </si>
+  <si>
+    <t>I stayed in Ascott Hotel Dhaka for 3 days for business purpose. Location is very good, near to Masjid, a lot if restaurant near by. The room is big and clean, and they have kitchen also, big refregerator.. to keep the food (good if you have long stay in dhaka) I would like to give credit for staff in reception, Abdulla, Islam, Habib, Specially mention of( Mr Shafiq he is a very gentleman and helpful person) They very helpfull during i am check in and check out also my any kinds of service.  I will not forget Ascott Hotel Dhaka he is my first and forever frind in DHAKA City. THATKS FOR ALL OF YOU</t>
+  </si>
+  <si>
+    <t>N T</t>
+  </si>
+  <si>
+    <t>I viited acott the residenec hotel By my company IHI ,Very nice áº¸noable Stayed .Very Secutrity n SÃ ty áº£ea.RÃ´m Is nice decoraded.Service Stuff Æ°ell known person.Speciallly Mr Basher Give me Very Fell cá»•mtable.Hie make coffee very nice.</t>
+  </si>
+  <si>
+    <t>Rifat M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excellent property and very convenient. Front desk staff are extremely efficient, pleasant and helpful. Property is clean and has a fantastic atmosphere. Overall, I had a great experience with the (ATR Dhaka); staff was incredibly helpful especially Shafiqul Islam(Duty manager) he was a veryprofessional &amp; helpful, and the amenities were great. The room was wonderful, clean, and perfect to celebrate the desired occasion. will be coming back again. </t>
+  </si>
+  <si>
+    <t>risikeshnepal</t>
+  </si>
+  <si>
+    <t>Very cosy hotel. Staffs are very humble and nice, especially Mr. Bashar who takes care of you well.   Deluxe rooms are better than 5 star hotel. Maintenance can be improved. Accessible from airport.</t>
+  </si>
+  <si>
+    <t>Kong Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Everything is good. Mr. Islam and the restaurant collegues are nice and servicial. The food and the service are realy good. The conditions of the hotel are clean and confortable. We recommend the hotel tonother peolple. </t>
+  </si>
+  <si>
+    <t>Joy s</t>
+  </si>
+  <si>
+    <t>I'm fully satisfied with your services included food quality is very good &amp; hygenic. The hotel decor is by far the nicest I've ever seen. Playful and stylish, tasteful yet trendy. It features cool blues, and whites, with metal trim.Hotel was very nit and clean.the stuffs are also well behaved with us. Mr.Shafiq &amp; Mr.Abdullah (reception) and other receptionist was very helpful and provided me the best services.Their commumication level is customer friendly.</t>
+  </si>
+  <si>
+    <t>Shahriar E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am fully satisfy the service of this hotel.  The environment services and food quality are really good.  Me and my family can spend very good time in this hotel.  And i am excited to come again in this hotel. Staff attitude and maner are really good specially Shafiq ( duty manager)he is a very professional and co cooperative. </t>
+  </si>
+  <si>
+    <t>Faisal M</t>
+  </si>
+  <si>
+    <t>The restaurant at your hotel deserves a special mention. The food was simply exquisite, and the dining experience was nothing short of exceptional. The variety of dishes offered and the impeccable service provided by the restaurant staff made each meal a delightful experience. ðŸ½ï¸ðŸ¥‚  Furthermore, I would like to commend Mr. Bashar and the entire team for their remarkable dedication and attentiveness throughout my stay. Their warmth and professionalism made me feel welcome and well-cared for during my visit. It is truly a testament to the outstanding quality of your staff and their commitment to providing an excellent guest experience. ðŸ‘¨â€ðŸ’¼ðŸ™Œ  Once again, I would like to express my gratitude for the wonderful hospitality I experienced during my time at your hotel</t>
+  </si>
+  <si>
+    <t>Fawad H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The staff at the hotel are very welcoming, warm and well mannered. Especially Sonia and Bashar at the restaurant. The ones at the entrance and the front desk are also very welcoming. I would very much like to come back the next time I am in Dhaka. </t>
+  </si>
+  <si>
+    <t>ATM A</t>
+  </si>
+  <si>
+    <t>Tasty food, excellent service. Yummy fried rice with spicy chili oil chicken. Salmon cooked perfect and delicious. Workers are very nice and helpful. Pudding very tasty with cherry on top. Mr. Bashar very helpful with out table.</t>
+  </si>
+  <si>
+    <t>Tuchaphon P</t>
+  </si>
+  <si>
+    <t>Good hotel. Located in Baridhara (diplomatic zone - very safe and clean). Staffs are super helpful and friendly esp Mr. Bashar at the restaurant and the bellboy, whom I couldnâ€™t remember his name. Foods are good. The portion is big, but I think it is quite expensive and take long time to cook.</t>
+  </si>
+  <si>
+    <t>Matthew B</t>
+  </si>
+  <si>
+    <t>Iâ€™ve traveled all over the world and stayed at the finest hotels including the Aman resorts. I have never experienced the incredible level of services that I received at the Ascott Residence in Dhaka Bangladesh. Every single staff member I have met has always had a smile on their face and has  gone out of their way to provide the very best service I have ever received. The list of employees is who have gone out of their way to make sure my stay is exceptional are too many to list. I wanted to mention the entire management team, concierge staff, restaurant staff, and housekeeping staff who have all made my stay one that I will never forget. Special thank you to: Zannat, Mahmud, Mohammad, Sonia, Mozid, Habib, Mr. Bashar, and everyone else at the Ascott whose name I did notâ€¦</t>
+  </si>
+  <si>
+    <t>Ali M</t>
+  </si>
+  <si>
+    <t>Bashar, down in the cafe. Very kind and accommodating. Made me feel welcome.  I needed help with so many things and he came through for me! I love seeing him. I have some dietary issues he has helped me out with!</t>
+  </si>
+  <si>
+    <t>David S</t>
+  </si>
+  <si>
+    <t>Everything is good. Mr. Bashar and the restaurant collegues are nice and servicial. The food and the service are realy good. The conditions of the hotel are clean and confortable. We recommend the hotel tonother peolple</t>
+  </si>
+  <si>
+    <t>Dipangkar C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The services of this  hotel is very highly professional. Such as food, venue, security, cleaning etc are very nice. They have sufficient trained staff who are very caring. The venue attendant Mr. Bashar,s is very cooperative. </t>
+  </si>
+  <si>
+    <t>FarAway58217119148</t>
+  </si>
+  <si>
+    <t>I visited the Ascott the Residence Dhaka with my dear colleges for the purpose of VAT Tax training of Plan International Bangladesh. The environmental  and total arrangement of the hotel is too good and also secured. Mr. Bashar and his team serve a treamendous service also.</t>
+  </si>
+  <si>
+    <t>Kumar S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The place amaze me with full of energetic peoples, always keen to help with positive mindset, ambience is nice, greenary around the venue gives us good time,Bashar vai is good person, mr mehedi is very cordial. we will defenately comeback. </t>
+  </si>
+  <si>
+    <t>Syed N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excellent support by the ascott the residence and the meeting room is very organized. Mr Basar also very cordail to dealings. THP bangladesh pleased to your service. Next time referer other Thank you </t>
+  </si>
+  <si>
+    <t>Farid A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am First time visit Ascott Residence  hotel.I am Very happy with Meeting venue At Serenity banquet hall Roof top, I was  there seminar of Industriall Union org.Open space, Nice garden. Venue also Well decorated, All service stuff Are provide  Good service, Specially Mr Bashar  give us remarkable  service. </t>
+  </si>
+  <si>
+    <t>Ali Ã‡</t>
+  </si>
+  <si>
+    <t>Hotel is very exciting and hospitable. Your services person are very nice and so kindful. Your breakfast is also good and delicios so taht i like very much Ä± think come back again. Your personel islam is very good people</t>
+  </si>
+  <si>
+    <t>Arman K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ascott residence Dhaka the provide as food in our giz Dhaka  office metting food is good mr basar give up spesal Service assist.he take care event giz venu.ascott hotel the wass regularly support most off the event. Thank you mr    basar your good support. </t>
+  </si>
+  <si>
+    <t>Nazmul H</t>
+  </si>
+  <si>
+    <t>I stayed 04Days Ascott residents Dhaka.It was very nice hotel.very security n safety areas.room very Nice decorated.I enjoyed buffet breakfast.food was execilent.Service stuff was very carefully.Mr Basher  give us mind blowing service.thanks to Mr Abu bakor,</t>
+  </si>
+  <si>
+    <t>Departure53270445927</t>
+  </si>
+  <si>
+    <t>It was a pleasure staying at this Brand new property, which is 4 minutes walking from the Mall. Ascott the residence  is a nice hotel with excellent food and service. They offer complementary fruit, chocolates and coffee in the room. Breakfast is good and you can choose: Indian, continental, etc. Also the restaurant is very good and reasonably priced. Overall the experience was brilliant and enjoyed or weekend getaway a lot. I will definitely stay there again.</t>
+  </si>
+  <si>
+    <t>al m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I Stay ascott residences Dhaka,Very comfortable, Room is Very Nice n enjoyable. Restaurant decorated well.good food,, l enjoy breakfast. Service stuff Very good, specially i mentioned to Mr Basher he Make me Very easy. </t>
+  </si>
+  <si>
+    <t>Mazidur Rahman N</t>
+  </si>
+  <si>
+    <t>Your hotel premises and internal ambeiance is very homely,nice &amp; friendly,I'm very pleased by your hospitality.the foods of your restaurent is very tasty like home made.lot of thanks to the authorities &amp; employees(mr.basher &amp; others).</t>
+  </si>
+  <si>
+    <t>World N</t>
+  </si>
+  <si>
+    <t>ascott hotel veery good,,very nice placement,,dinner,lunch,breakfust all good, i am satisfaction,, all food and all service very well,i am happy and my team very satisfaction , tnq so much mr Basar vi for ur survice</t>
+  </si>
+  <si>
+    <t>azad h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wow! What a delicious lunch we had,we really love the ambience, nicely table arrangement by the service team,location is safe and secure,food was too good, service team is cery helpful always supportive. </t>
+  </si>
+  <si>
+    <t>Coastal14639179646</t>
+  </si>
+  <si>
+    <t>Good as a training venue. The food, accommodation and customer service is very good. Mr. Bashar has provided a good service, the area is very safe. And everyone is very well behaved. Thank you for the hospitality.</t>
+  </si>
+  <si>
+    <t>Biplob B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I visited Ascott hotel residence, I I said here one night. I am really pleased to be here and the service and the food was really excellent I found it very nice and and I was very please to meet with Mr Bashar and is very kind hospitality.  </t>
+  </si>
+  <si>
+    <t>azann i</t>
+  </si>
+  <si>
+    <t>This is located in Dhaka city at Baridhara diplomatic zone, It's Really Nice Hotel. I Had Stay Couple of days. I was  spand the good moments is the hotel. When i will be back then i would like to stay.Specially  thanks to Front office stuffs Mehedi &amp; Shafiq.</t>
+  </si>
+  <si>
+    <t>Xannat K</t>
+  </si>
+  <si>
+    <t>Recently stayed. Best place to stay, particularly one staff member who made my stay truly unforgettable. Emon, a true gentleman among hotel staff. Went for a coffee and gave the remarkable service. Master at making coffee and all. Displayed best professionalism.  A true gem â¤ï¸</t>
+  </si>
+  <si>
+    <t>Raja O</t>
+  </si>
+  <si>
+    <t>I recently had the pleasure of staying at Ascott, particularly one exceptional staff member who made my experience truly unforgettable. Ashiful Emon, a true gem among hotel staff, went above and beyond to ensure that my needs were not only met but exceeded. Ashiful Emon displayed remarkable professionalism and efficiency.</t>
+  </si>
+  <si>
+    <t>Flyer10194281306</t>
+  </si>
+  <si>
+    <t>Nice Hotel in Dhaka city Ascott The Residence,  near by International Airport  there protocol and transport service is very good, durning Check in time Concierge Service was fantastic as well as Front Office. They had Friendly attitude and smalling  face of Mahedi &amp;  Shadman, also restaurant service is good  food was delicious Emon is a maintain the proper service to the guest.</t>
+  </si>
+  <si>
+    <t>Jannatul J</t>
+  </si>
+  <si>
+    <t>Ascott The Residence is good hotel in Dhaka city stay with friends and family. Location is very safe place at Baridhara Deplomatic zone. Restaurant service so nice also food very delicious. front office Guy Mahedi very smart to deal. Bashear and Emon nice support to us.</t>
+  </si>
+  <si>
+    <t>shuvo r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I visited Ascott hotel rasidenc under Democracy international programe. There was I meet Many services people,, All are them verynice  Specialy Mr Basher Servic Man taker care every thing, Mr Emon Made Nice coffee. </t>
+  </si>
+  <si>
+    <t>Md Rofikul I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am Rofiq from CMSD, We take a food service from Ascott The Residence Dhaka. They have well trained food service man, we meet name- Bashar. We happy to take service from Ascott The Residence. They give us nice services. </t>
+  </si>
+  <si>
+    <t>anis k</t>
+  </si>
+  <si>
+    <t>I am coming here  frequently to attend  the democracy international training. They really took care us from their heart,food is good,banquet is wide,we enjoyed our training time here,thanks to mr Bashar for his very kind and attentive service also other service people also very cordial to our needs,i feel like home here, the rooftop outlet is really chilling place.</t>
+  </si>
+  <si>
+    <t>mahadi hasan k</t>
+  </si>
+  <si>
+    <t>Hotel Ascott The Resistance is very good to stay with family &amp; there are employees are too general &amp; familiar there  behaviour is good. Restaurant food so good. location is very nice palace. All are good to stay in hotel.</t>
+  </si>
+  <si>
+    <t>R R</t>
+  </si>
+  <si>
+    <t>Enjoyed pleasant stay and great guest experience.  Hotel staff are great, kind , polite and very helpful. Special thanks to Sonia for her kindness and caring.  Great location.. Nice Ambience.. Comfortable room..</t>
+  </si>
+  <si>
+    <t>Sherpa29557764154</t>
+  </si>
+  <si>
+    <t>It was great experience in that hotel  Room service was good and ASLO breakfast great fav and the pickup and drown service was available in that great experience in that hotel and the hotel staff Mahedi and Rashed great person and good behavior to stay with hat hotel.</t>
+  </si>
+  <si>
+    <t>Sherpa33138334363</t>
+  </si>
+  <si>
+    <t>I stayed many times at Ascott The Residence. Whenever I came, I felt that it was my second home. The staff is very cooperative and attentive. The rooms were very clean, and they always took care of my preferences.</t>
+  </si>
+  <si>
+    <t>JimR.</t>
+  </si>
+  <si>
+    <t>This is my third visit to Ascott The Residence Dhaka. When I arrived I was under the weather. The staff looked after me with genuine care. Zannat at the front desk helped me get some medication and Sonia in the restaurant made sure I ate well. I hope to visit this hotel again.</t>
+  </si>
+  <si>
+    <t>David H</t>
+  </si>
+  <si>
+    <t>We stayed one night in Ascott The Residence Dhaka and truly enjoyed the experience. We stayed in a suite and found it well-appointed. There were eight bottles of water and a plate of fresh fruit waiting for us. There was coffee and tea in the kitchenette, and the bathroom had all the products you would need: comb, toothbrush, ample products. The cable in the room was nice, too; there were movie, news and sports channels in English. My family and I watched some tennis, listed to music on VH1, and caught a bit of a movie on HBO. The bed was a bit hard, but I have heard that that is normal in Bangladesh. The ample pillows and cold AC certainly made the sleeping overall very pleasant. The breakfast that was included in our stay was yummy, too. There were typical western breakfastâ€¦</t>
+  </si>
+  <si>
+    <t>JyotiProkash M</t>
+  </si>
+  <si>
+    <t>Nice place for Meeting/ Good Hospitality / Best Food.  The Hotel lacation is really attactive. Very good location ensure the easy moving of the various location of Dhaka City. Safety is very concern for me. Found safety here</t>
+  </si>
+  <si>
+    <t>LOLO</t>
+  </si>
+  <si>
+    <t>I spent over a week at the Ascott Residence and was extremely pleased with my stay! Rooms are comfortable and clean. The location is ideal if you're looking for peace and quiet after a hard day's work. There's always a little attention on the pillow before bedtime, so lovely. Every employee is adorable and caring : from security guards to housekeepers and from reception to the restaurant. Thanks to all employees for their kindness ! Special mention for Masud, Harun and Mahedi :) Hoping to see you again one day!</t>
+  </si>
+  <si>
+    <t>Noor M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The hotel is very comfortable,room interior is good,food is delicious variety of options at buffet breakfast,food and beverage service team are so caring mr.mehedi manage his team very well,well trained they took care our every aspects. </t>
+  </si>
+  <si>
+    <t>Phong Vu</t>
+  </si>
+  <si>
+    <t>This Second time i'm coming in Dhaka, so i'm very interested, all services are good, people very friendly. I can moving anywhere with relative ease with the means featured here and The food here is also quite suitable for me. Thank you my friend Mr Islam!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wonderful hotel,located in very quite area, safe and secure, i enjoyed my one week stay,breakfast is good, lots of local selection is there,thanks restaurant associate mr masud,bashar,and others,they took care our group with nice hospitality. </t>
+  </si>
+  <si>
+    <t>Shahadat H</t>
+  </si>
+  <si>
+    <t>I stayed in Ascott The Residence for four nights in June 2023. It was my 2nd visit to Dhaka. In general, the hotel staff is friendly, especially Abdullah from the Front office dept. The room is clean and comfortable.</t>
+  </si>
+  <si>
+    <t>Ziaul S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It was best tour ever from democracy international. The hospitality of this hotel is best in city, i would recommend to visit anyone, who are seeking warm hospitality, Specially i would like to mention Mr.Andullah,Shafiqul and Osman for their extra ordinary service. </t>
+  </si>
+  <si>
+    <t>Jannatul M</t>
+  </si>
+  <si>
+    <t>It was my first time visit in Bangladesh , and Iâ€™m so much happy that I booked at Ascott The Residence . Everyone is so much helpful From front office they are particularly warm hospitable at their service. Specially Mr.Abdullah. It was such a nice stay . From the first day to last day I really appreciate for everything. Definitely Iâ€™ll make a plan for visit again.</t>
+  </si>
+  <si>
+    <t>Parjanya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The hotel is great and has wonderfull staff, they accomodate requests and are very considerate and helpful. Rooms were clean and well maintained. There is just the right amount of furnishing and good quality bedding. </t>
+  </si>
+  <si>
+    <t>Christopher S</t>
+  </si>
+  <si>
+    <t>The staff is amazing!! Hit up Islam, heâ€™s awesome and cares about his guests! Good food and good coffee and fresh food!!!! The staff really cares about your well being and is always available to help! This is a must visit site! You will not be disappointed!</t>
+  </si>
+  <si>
+    <t>Amol</t>
+  </si>
+  <si>
+    <t>Very good service  Abdullah Alfahat is very helpful and cooperative. Housekeeping is very good as they asked for evening room cleaning . Need to.increase the Indian Vegetrian food options so that will be helpful for guests</t>
+  </si>
+  <si>
+    <t>Azlan Naif M</t>
+  </si>
+  <si>
+    <t>The room is very nice and comfy and I had a good hospitality by the hotel staff. Kudos to Mr. Mahedi for keeping us checking in and checking out very smooth.   The location is strategic and lots of food.</t>
+  </si>
+  <si>
+    <t>Varis S</t>
+  </si>
+  <si>
+    <t>Good services and nice room. Hotel personnels are friendly and polite. This time I was stayed overnight on my birthday, hotel staffs are surprised me with the beautiful and tasty chocolate cake on my check-out date after I finished my breakfast â€¦ I really feel thankful for the big surprise and made me feel special &amp; wonderful on my birthday. I am surely to stay and recommend my colleagues for this hotel.</t>
+  </si>
+  <si>
+    <t>Mehedi R</t>
+  </si>
+  <si>
+    <t>Visited there a few days back. Simply in one word their service is outstanding. The atmosphere of the lobby and restaurant is very nice. They have a salon at the top of the hotel. The staff are well trained and very supportive and cooperative.</t>
+  </si>
+  <si>
+    <t>PORAMIN I</t>
+  </si>
+  <si>
+    <t>Mahedi service guy is very good man. He ready to help in everything you are requested.  Hotel provided complimentary and transportation to airport and downtown just informed them in advance. Feel safe and comfortable.</t>
+  </si>
+  <si>
+    <t>VÄƒn ÄÆ°Æ¡ng N</t>
+  </si>
+  <si>
+    <t>Good hotel to stay in Dhaka. Room clean and comfortable, beautiful menu and very good food, staffs is friendly and supportfully, very good service and safe to stay. Good place for you guy to stay. Mahedi and Rashed are very good and friendly, helpfull and support me somuch.</t>
+  </si>
+  <si>
+    <t>Sushil Shah</t>
+  </si>
+  <si>
+    <t>Hotel staff are so friendly and cooperative. From the beginning to end, my experience was so good from the online booking, airport protocol manager Mr. Shafiq, restaurant manager Ms. Sonia, front desk staff and even drivers. All know good hospitality. Rooms are neat and clean, breakfast is upto the mark. Thanks to Zannat to help me on online booking.  Really it was great pleasure  to stay !!!!</t>
+  </si>
+  <si>
+    <t>hasan mahammud</t>
+  </si>
+  <si>
+    <t>Have visited overthere in this month with my partner.very nice hotel located in calm quite area,budget friendly and family friendly aswell.food and beverage service staff are very friendly well mannered.will visit again in future also.</t>
+  </si>
+  <si>
+    <t>vuong viet L</t>
+  </si>
+  <si>
+    <t>Nice hotel, the staff are super friendly. They give me a lot of helps and advice during stays. Cozy room. There are good services to pick up and transfer to the airport event in very late time.  Will be back next time</t>
+  </si>
+  <si>
+    <t>firoza h</t>
+  </si>
+  <si>
+    <t>Their service &amp; food is very good, I highly recommend this place. The Cuppacino is one of best in Dhaka city.Their staffs are very cooperative and attentive to their guest.i will try to come again to test their delicious food</t>
+  </si>
+  <si>
+    <t>Vinay R</t>
+  </si>
+  <si>
+    <t>True Bangladeshi hospitality. The rooms are clean, the breakfast is good and the room service is extremely satisfying. The staff are always smiling. Islam and Jashan are very professional and greet you every time they see you. The only problem is mosquitoes. Donâ€™t forget the mosquitoe repellent.</t>
+  </si>
+  <si>
+    <t>Michelle M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ascott Residence has excellent staff and food. Sonia, Romana and Masood are warm, welcoming and attentive to every need. All the staff at the hotel from restaurant to housekeeping are lovely. I'd recommend this hotel. </t>
+  </si>
+  <si>
+    <t>charles r</t>
+  </si>
+  <si>
+    <t>Great atmosphere and great service. I was skeptical at first but they provided patience and understanding to every whim you have. The location is great and very quiet with a home away from home feel. If you need to stay in the diplomatic zone this is the hotel for you</t>
+  </si>
+  <si>
+    <t>Ronald Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It was fine. Housekeeping needs some improvements. Room is clean and with basic items. Staff is friendly and helpful. Restaurant staff is attentive. Food quality is above average. Price is reasonable.Neighbourhood is safe. </t>
+  </si>
+  <si>
+    <t>armararuben m</t>
+  </si>
+  <si>
+    <t>Friendly and very helpfull staf. Good place to stay. Food at the restaurant was good and cater to all needs. Breakfast had a good variety. Had a great time staying there. Located in a clean and safe area</t>
+  </si>
+  <si>
+    <t>Julian</t>
+  </si>
+  <si>
+    <t>Mr Tarik and his team made me feel at home from the start. I always enjoyed walking from my residents through the lush residential streets to their hotel where I often dined. A friendly and authentic staff with undoubtably the best coffee in Dhaka!</t>
+  </si>
+  <si>
+    <t>Josh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The staff is very welcoming, hospitable, and friendly. Mr. Tarik made me feel right at home. Mr. Tarik is actively engaged with guests and ensures their comfort. I extend a personal thank you to Mr. Tarik, and a genuine appreciation for the entire staff. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We love the hospitality here. It was an short stay but a moemoral ones. The people here were good with their services. And special thanks to Hasain Sakib and Mahedi for their support  and friendliness along the stay. </t>
+  </si>
+  <si>
+    <t>takeshi m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kind staffs, clean room and quiet location. It takes 20min to Gulshan on foot. Also ride Rikisha as well. Restaurants around the hotel are few but I ordered delivery apps Pathao.  I will back to here again. </t>
+  </si>
+  <si>
+    <t>Shohail S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very hospitable, well furnished rooms, the staff were very friendly and accommodating. I have absolutely no complaints. Albeit location can prove to be a bit of a problem in terms of finding atms, transport etc. </t>
+  </si>
+  <si>
+    <t>syunya</t>
+  </si>
+  <si>
+    <t>Excellent hotel and I will definitely stay again!! They serve good food, drinks hospitality of all staffs. If you visit Dhaka, I strongly recommend to stay the Ascott Residence. I can also recommend another group hotel Ascott Palace,</t>
+  </si>
+  <si>
+    <t>SO</t>
+  </si>
+  <si>
+    <t>Good atmosphere, with a good variety of choices in breakfast buffet. The room interior is nice, cozy and clean. Also a lot of thanks to the friendly greetings and services from Mr. Mahedi, as well as all ther other staff members.</t>
+  </si>
+  <si>
+    <t>Mamun T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ascott hotel one of my favorite hotel in Bangladesh . I was visited with my wife for lunch , the quality of food and service was really good . Mr. Hasan was serve us he is super star  also Mr. harun  . Mr. G M Mosharraf Hossain Khoka is he running this hotel been long time he is good human and idol for Bangladesh  hotel industry . Thank you Mr Khoka . </t>
+  </si>
+  <si>
+    <t>tomoki i</t>
+  </si>
+  <si>
+    <t>The hotel staff greeted me with smiles and delicious mango juice! But it's a bit too sweet, so I'd like soda if possible. I feel safe because the security staff of the hotel properly inspects my luggage. It would have been better if the hotel had a bar where you could drink alcohol.</t>
+  </si>
+  <si>
+    <t>Adam C</t>
+  </si>
+  <si>
+    <t>Very nice experience.  Great staff and good vibes!! Hotel is nice location.  Rooms are good and service was good. Rooms were what was needed for a business trip. Breakfast was fine. Good experience in Dhaka. Very friendly staff as well as being very service oriented.</t>
+  </si>
+  <si>
+    <t>Peter P</t>
+  </si>
+  <si>
+    <t>Excellent hotel very efficient and clean. Zanjar Sonia and all the staff knew their jobs. Pick up at airport works well. Leave plenty of time to get to the airport as traffic can be very bad. Unfortunately there is not much to do at the airport if you are early!</t>
+  </si>
+  <si>
+    <t>M M</t>
+  </si>
+  <si>
+    <t>Ascott the Residence is nice, clean and the staff very friendly and accommodating. I had a pleasant and productive visit and intend on staying in the future. I came in for three days to explore Dhaka as a tourist but also had to check-in regularly for work. I found the internet fast and reliable and I had no issue getting things done. While my knowledge of the city isn't deep, I can't imagine a better location than Ascott's- it is quiet and uncrowded but still close to the center. Highly recommended for either tourism or business purposes.</t>
+  </si>
+  <si>
+    <t>odessa1123</t>
+  </si>
+  <si>
+    <t>After finding other hotels fully booked due to post-COVID booming, I reluctantly stayed at this hotel for about two weeks. However, I feel that the management has changed significantly since before the pandemic and that the basic training for hotel staff is insufficient. I was disturbed during my stay by instances such as staff loudly calling out names in the restaurant and the unstable internet connection resulting in repeated knocking on my door and phone calls asking if everything was okay after I had made a complaint three hours prior. The lack of basic training for hotel employees greatly affected my sleep quality. Choosing another hotel would provide a more secure and comfortable stay.</t>
+  </si>
+  <si>
+    <t>Ali Asghar</t>
+  </si>
+  <si>
+    <t>All the teams is good working, everything care with me, good communication.safisfy with the internet connection, good food, good house keeping, ..........................................................</t>
+  </si>
+  <si>
+    <t>Kazi Md. Abdullah Al Borhan Rizvi</t>
+  </si>
+  <si>
+    <t>I would like to complements all of your staff being very professional. With smile thier faces,have been very impressive in thier services,I would like to visit again. Specially like to mention some staff names  #Ms. Sonia #Mr. Masud #Mr. Mahmudul hasan (house keeping)</t>
+  </si>
+  <si>
+    <t>Subash M</t>
+  </si>
+  <si>
+    <t>The service was excellent with respect to all areas by Zannat, Hassan and Habib in reception, Shawan in airport transfers and restaurant. I recommend this hotel quite highly for service with a smile throughout my stay.</t>
+  </si>
+  <si>
+    <t>à¸—à¸™à¸‡à¸¨à¸±à¸à¸”à¸´à¹Œ à¹</t>
+  </si>
+  <si>
+    <t>Feel like back home again, good service mind and taking care very well from Mr. Mahedi and all the crew. Very good test for the food, especially option number 8, with sweet and sour soup. Room also clean</t>
+  </si>
+  <si>
+    <t>Quang Táº¡o Le</t>
+  </si>
+  <si>
+    <t>Here is quiet good as foods and drinks nice all ..receptionist is very friendly ....I have good support from Abdulla when I have issued transport from Hotel to Airport it is traffic jam I worry late my flight.</t>
+  </si>
+  <si>
+    <t>å’Œå“‰ ç›¸</t>
+  </si>
+  <si>
+    <t>This is very good hotel hmm when I was last time stay was very good also food are nice today airport potocal service was fine and check in is nice Mr sakib very good person also Mr Mahedi is very fast to come to room and mention everything and all number</t>
+  </si>
+  <si>
+    <t>Seaside44779880295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very good services, very good crew specially for ( MR.ISLAM) , good attitude,good food,good handling from Reception crew , good attitude from restaurant crew ØŒgood support from the drivers , keep the good work up </t>
+  </si>
+  <si>
+    <t>Md Z</t>
+  </si>
+  <si>
+    <t>This Hotel is Very  nice &amp; good. Everybody behaviour is really fantastic &amp; Bellboy MAHEDI is very Smart to Chuck in also description about hotel &amp; room.  Security are also fine to security all everything.  Thanks for service</t>
+  </si>
+  <si>
+    <t>Diego G</t>
+  </si>
+  <si>
+    <t>The hotel staff was attentive and very helpful, particularly Zannat at the front desk who made gracious efforts to provide timely and pertinent assistance. The rooms are ample, neat and cozy. And the hotel location is unbeatable. I would recommend a stay at the Ascott for whomever is visiting Dhaka.</t>
+  </si>
+  <si>
+    <t>Victor M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The hotel was very well situated, the staff were very friendly and welcoming. Mr. Mahedi and Ms. Jannat was very helpful to us and provided ample attention and support for us and our guests. Overall very happy </t>
+  </si>
+  <si>
+    <t>The hotel is just nice and clean as the expectation, the service is also great. Would be a nice place to rest or during bussiness. MAHEDI and ABDULLHA are so cool serving when arrive. Alot of supporting just you can ask for the help here.</t>
+  </si>
+  <si>
+    <t>ãƒˆãƒ¢ãƒ¦ã‚­ ãƒŠã‚«ãƒ‹ã‚·</t>
+  </si>
+  <si>
+    <t>very very good. MAHADI san, he is a bellboy, is so kind that he explain me many service of the hotel. They politely explained which services cost money and which were free. I would like to come to this hotel again.</t>
+  </si>
+  <si>
+    <t>Arvindraj K</t>
+  </si>
+  <si>
+    <t>Clean rooms, delicious food and excellent service! They had a wide spread of selections for breakfast, lunch and dinner! Their welcome juice was tasty too. Shout out to Abdullah, Shakib and Islam  for their 5 star services.</t>
+  </si>
+  <si>
+    <t>Boycitra M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great service, good food ( many choices) , good vibes, peaceful place (surrounding), comfort room.. Friendly employee.. Good service by the receptionist (Abdullah) and bellboy (Islam)... Keep up the good work! </t>
+  </si>
+  <si>
+    <t>Richard Poquiz</t>
+  </si>
+  <si>
+    <t>Front desk is very accommodating. Room services were very helpful. The room is very clean and tidy. The food were good, different items were prepared. Appreciated the complimentary items that were provided. Great services!</t>
+  </si>
+  <si>
+    <t>Tanzil A</t>
+  </si>
+  <si>
+    <t>The service was excellent and i feel comfort to stay here always. Room service found excellent.  Mr. Mahedi behaviour was good enough and he was very Cooperative. I fully satisfy with his service and in future want to visit more</t>
+  </si>
+  <si>
+    <t>MyKagura</t>
+  </si>
+  <si>
+    <t>Everyone was very hospitable and helpful. Breakfast is good and Japanese seaweed rolls are available. The rooms are spacious enough and have good internet speeds, and the bathrooms have good hot water. Mr Abdullah was also helpful during check-out. The airport transfer service was smooth.</t>
+  </si>
+  <si>
+    <t>Soerya</t>
+  </si>
+  <si>
+    <t>Though it was my first visit in dhaka, i have found staff was very cooperative specially Mr  Reaz he helped me lot regarding my laundry.room was very clean as well as food was very delicious. I must recommend this hotel and i will inform to my company to accommodate me in my next travel once i back dhaka again.</t>
+  </si>
+  <si>
+    <t>Pat A</t>
+  </si>
+  <si>
+    <t>Good serviced from Andullah and team.dinner and breakfast  was great test and delicious.We will back again and Ascott Hotel alway the bast for our team for transition and visit in Dhaka Bangladesh. THANK YOU....</t>
+  </si>
+  <si>
+    <t>Aya W.K</t>
+  </si>
+  <si>
+    <t>It is nice stay. Communication was good.  Would like to stay again when I visit Bangladesh.  Thanks for Mr. Abdullah and Mr. Islam for better service. Breakfast was good. I recommend to visit anyone who want to visit.</t>
+  </si>
+  <si>
+    <t>Mr Abdullah and Mr Habib were really very helpful. My stay was very nice. People were always talking to me and asking how I was and if I slept well. Hotel location is good, very accessible and good neighborhood. Truly a recommended hotel to anyone visiting Dhaka.</t>
+  </si>
+  <si>
+    <t>Manon L</t>
+  </si>
+  <si>
+    <t>Really nice stay, room super cleaned, friendly staff!  Emplacement of the hotel really convenient and all services available at the hotel with good service! Made me feel at home! Definitely recommend it!</t>
+  </si>
+  <si>
+    <t>Tim C</t>
+  </si>
+  <si>
+    <t>We stayed for 6 nights at Ascott the Residence in Nov 2022. Having stayed at another nearby hotel right before moving to Ascott, Iâ€™ll have to say that Ascott was excellent. The room was beautiful, with very clean sheets, nice aircon and a great toilet. More importantly, the staff were all very friendly and professional, from the security personnel and bellboy right up to the manager. Special shout-out to Miss Joanna for her kind assistance in making our stay a memorable one, and Habibur for excellent service and friendliness during breakfast!</t>
+  </si>
+  <si>
+    <t>Urvish</t>
+  </si>
+  <si>
+    <t>Itâ€™s very warm welcoming n staff is very helpful they help us in each n every way .  Specially Sonia at the break fast desk . They really helped us with Language issue which we were facing it very badly but the staff made it very smooth for us n guided us .</t>
+  </si>
+  <si>
+    <t>lfoster9</t>
+  </si>
+  <si>
+    <t>This is my 1st time staying here in over 6 years.  But I will say these people remember you from airport collection to reservationâ€™s to even Mohammed Ali he is the boy In restaurant.   All a good crew.  Here.  This was all in my 6 hours of being back here</t>
+  </si>
+  <si>
+    <t>Bo Christoffer B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed for a few days. Nice hotel in quiet surroundings in Baridhara. The room was clean and comfortable. The staff was friendly and the service was good. All in all I was satisfied and I would happily come back. </t>
+  </si>
+  <si>
+    <t>Roni Y</t>
+  </si>
+  <si>
+    <t>it was a good place to sleep..very relaxing place..have a good food also good service.and good worker.it is also have a good view.if you need something they can provide it to you.to many food to choose..keep it good work..</t>
+  </si>
+  <si>
+    <t>guchiguchi2015</t>
+  </si>
+  <si>
+    <t>Friendly staff makes my stay memorable one every time. Thanks to Mr. Abdullah and Mr. Islam Sheik! Though I have no plan to back to Dhaka at this moment, I will surely stay at the Ascott the Residence next time.</t>
+  </si>
+  <si>
+    <t>AFAF A</t>
+  </si>
+  <si>
+    <t>Everything is good .. from staff to hospitality cleanliness,the quality of service..the restaurant staff are very friendlyâ€¦They make you feel so special ( Especially Sonia) . I stay there every time I visit Dhaka</t>
+  </si>
+  <si>
+    <t>junser s</t>
+  </si>
+  <si>
+    <t>Very Good hospitally from Zannat, Usman bhai and Maruf and  the team members. And I like to stay this hotel for the future. Recommended for tou stay in this hotel.  I like the food and gym place also nice. You can enjoy your Karaoke time at night on  roof top</t>
+  </si>
+  <si>
+    <t>Nikhil K</t>
+  </si>
+  <si>
+    <t>Best hospitality at Ascott Hotel, Dhaka. Appreciate welcome and take care at Reception by senior staff name Jannat..Thanks to Jannat for wonderful hospitality. Hope to visit Ascott Hotel in Next visit in November. I am very happy and delighted ðŸ˜Š</t>
+  </si>
+  <si>
+    <t>Yuko S</t>
+  </si>
+  <si>
+    <t>We are confined to stay in only allowed hotels due to security purpose. Ascott is great choice among those  and I stayed more than two months. Staff are well trained and highly hospitality minded. one thing missing is a small kitchen facility in the room for long staying guest.</t>
+  </si>
+  <si>
+    <t>Maps460544</t>
+  </si>
+  <si>
+    <t>Restaurant team are welcoming, attentive and friendly. Every day a friendly greeting from Sonia and team. Suite room is well provided with facilities hard to find in Dhaka. Perfect for an extended stay. Baridhara is a quiet neighbourhood with parks and possible to walk around freely to the park, small minimart or coffee shop.</t>
+  </si>
+  <si>
+    <t>Malika Bow S</t>
+  </si>
+  <si>
+    <t>The staffs were super friendly, especially to Tarik, Sonia and Hasan.  Recommend to stay here. Tarik was very professional and keen to help all the guest, Iâ€™m very satisfied. Definitely come again for next trip.  However the room can be improved, the room need to be updated accordingly to modern facilities. Any other employees should be trained accordingly to international standard.</t>
+  </si>
+  <si>
+    <t>Raonak Barman</t>
+  </si>
+  <si>
+    <t>very satisfied with the service from Ascott Palace management. specially  Bashar and Jubayer was always therefore. very well mannered and cooperative behavior. Food quality was upto the mark and as per requirement</t>
+  </si>
+  <si>
+    <t>Exploration222789</t>
+  </si>
+  <si>
+    <t>å¤§ä½¿é¤¨ã‚¨ãƒªã‚¢ã«ã‚ã‚‹ãŸã‚ã€é™ã‹ã§è½ã¡ç€ã„ãŸãƒ›ãƒ†ãƒ«ã§ã™ã€‚éƒ¨å±‹ã‚‚åºƒãã€ã‚¢ãƒ¡ãƒ‹ãƒ†ã‚£ã‚‚ååˆ†ãã‚ã£ã¦ã„ã¾ã™ã€‚ã‚¹ã‚¿ãƒƒãƒ•ã¯çš†ã•ã‚“è¦ªåˆ‡ã§ã€å›°ã£ãŸã“ã¨ãŒã‚ã‚Œã°ã™ãã«å¯¾å¿œã—ã¦ãã‚Œã¾ã—ãŸã€‚  A comfortable and quiet hotel with enough amenities equipped. Your requests and problems are promptly addressed.  My stay was a bit long, more than 1 month, but my stay was quite comfortable there. Staff were friendly and helpful â€“ Mohhamad of the front desk, Sonia in the restaurant, Tarik, officer and all other staff of front desk, bellboy, housekeeping, restaurant, security were willing to help my stay there great one. I took some room services and the taste was nice.</t>
+  </si>
+  <si>
+    <t>S.Islam</t>
+  </si>
+  <si>
+    <t>We had a pleasant time at Ascott The Residence. I traveled to Bangladesh with my husband and two children after a very long time. I was concerned about safety. Mr. Md. Ibrahim, reservation supervisor, assured Ascott The Residence was a safe place to be and I felt very safe throughout our stay. Mr. Shafiq, the airport protocol officer, was patiently waiting for us when we arrived. Ms. Sonia greeted us every morning for breakfast and made sure we had everything we needed. She packed bakery for us when we went for a trip and the day we were leaving because I missed breakfast! It was delightful to see her every morning! The staff, Abu Bakor and Habib were helpful. Overall, every staff we met were very nice and made our stay comfortable. We had the the Business Suite. We really likedâ€¦</t>
+  </si>
+  <si>
+    <t>Balwinder Singh</t>
+  </si>
+  <si>
+    <t>I am staying in this hotel since last 2 month. The staff is very friendly, Professional and always ready to assist.The rooms are clean and large with lovely decor and cushy bed that are pure white and so comfortable.  food is very good,fresh,tasty and healthy.Restorant staff is very polite, radiant and made me feel at home. They have to improve laundry service because some time they not remove stains properly. Highly recommend this hotel. If i came again this area i would like to stay here.</t>
+  </si>
+  <si>
+    <t>Akash Tyagi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Had a great felling here , hospitality is on  next level feel like home here .  All staff is very pleasant need to mention  some person which I interact more First is Mr Tarik and other is Miss Soniya pleasure meeting you both .   Lots of love from india â£ï¸ðŸ™ </t>
+  </si>
+  <si>
+    <t>Darshan T</t>
+  </si>
+  <si>
+    <t>It was my first visit to Dhaka, and I stayed at the Ascott hotel the best word to sum up my experience would be a fantastic hotel. a) Everyone here is well-trained, friendly, and eager to do their best to meet our needs. b) The hotel is located in Dhaka's affluent region (the diplomatic zone of Baridhara), in a calm and well-kept area that belies the image of the city you have in your mind. c) I'm also pleased with the restaurant's food quality, the staff, and Salman Tarik Bhai, who also happens to be the co-owner/ PR head. Tarik is a fantastic person, and I've gained much knowledge about Bangladesh and its culture from him. I anticipate returning here once more.</t>
+  </si>
+  <si>
+    <t>Gk</t>
+  </si>
+  <si>
+    <t>Hi Mahmud Russel,  It was nice time i had spent in your hotel. Stayed for 2 days. So, admirable polite humans from Entrance to Manager to service staff etc. Really your team is performing good. Mr.Robin and Captain were doing a great job. I do visit again n again.  Spacious rooms, hygienic and well maintained buffet,.. superb..  God Bless you guys to serve more and more.</t>
+  </si>
+  <si>
+    <t>rohits</t>
+  </si>
+  <si>
+    <t>I stayed in the hotel for more than a week. The stay was great. The staff was very warm and welcoming. Special thanks to Mr. Tarik. He is great in management and guest relations.   The hotel is in prime location, has good security and safe surroundings. There are lakes/ gardens nearby for relaxing and jogging. Breakfast spread and food is also nice.  Overall it was a very good experience. Would recommend for family as well as business stays.</t>
+  </si>
+  <si>
+    <t>afonso s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The place is comfortable, the stuff is good ,Sonia is a very nice employer always ready to help and support, food is good,the location is very good ,rooms are good,a good suggestion to stay when you come in business, on the end of the day you can relax ,no noise and calm </t>
+  </si>
+  <si>
+    <t>NAOKI I</t>
+  </si>
+  <si>
+    <t>I have been staying at this hotel for about a month and everyone is friendly and very comfortable. They try to remember the room numbers and food preferences of long-stay guests and try to serve us comfortably, when it comes to breakfast. Sonia and Hasan in particular have been a great help to me every morning.</t>
+  </si>
+  <si>
+    <t>Sagar A</t>
+  </si>
+  <si>
+    <t>Stay at Ascott was very warm, staff are very courteous and the location of Baridhara is just amazing and quiet. Spl mention of Mr. Tariq, he helped in all the hotel formalities and served with smile. Looking forward to travelling again there</t>
+  </si>
+  <si>
+    <t>Surin J</t>
+  </si>
+  <si>
+    <t>Great hotel,good support and service from staff, Thanks Sonia and Hasan for good services and all good&amp; delicious food hope to be back here again in the future who are looking for a good hotel I would recommend   here</t>
+  </si>
+  <si>
+    <t>NFN M</t>
+  </si>
+  <si>
+    <t>Room and people are good. Best place to stay during transit at baridhara area. Room are tidy. Food at restoran during breakfast are exelance. Room boy sheikh have good bahaviour. Fahad was a resiptionist has good personality.</t>
+  </si>
+  <si>
+    <t>Van Haaren</t>
+  </si>
+  <si>
+    <t>Excellent Hotel, most friendly staff and best service!   Mr. Basher has been our host for the week and he has been doing his job full of passion, we are most greatful to him and his collegues.   Also we enjoyed the dinner on the rooftop restaurant. And the breakfast was delicious!   We recommend this hotel to tourist and business people. It is located in the most safe part of the town next to all the ambassies.   Family van Haaren from the Netherlands.</t>
+  </si>
+  <si>
+    <t>Kaleem U</t>
+  </si>
+  <si>
+    <t>Good service all the time by all staff of the hotel and alway there to help the geust all situation of the guest really appreciated the crew of hotel from my side handoff all the hotel staff and front office.</t>
+  </si>
+  <si>
+    <t>Manoshij B</t>
+  </si>
+  <si>
+    <t>Mr. Mahmudol Hasan is a very warm, sophisticated, and able hospitality professional. I recommend him very highly for hospitality (especially room attending) services. His behavior, punctuality, and approach to work is very comfortable and effective.</t>
+  </si>
+  <si>
+    <t>æ­£é«˜ å±±</t>
+  </si>
+  <si>
+    <t>The staff are very friendly .the premises are always very clean and well maintained.the front office and all department are very supportive and especially Mr Fahad  are always looking out for the best for the guest.</t>
+  </si>
+  <si>
+    <t>Shahadat Bacchu</t>
+  </si>
+  <si>
+    <t>Overall service was great. Very satisfied with the hospitali of the staffs. Specifically pleased with the service of Ms Sonia and Mr Habibur. They were very efficient. Especially Ms Sonia was very warm and friendly. An awesome experience so far.</t>
+  </si>
+  <si>
+    <t>Hasan Mahmood</t>
+  </si>
+  <si>
+    <t>Overall service was great. Very satisfied with the hospitality of the staffs. Specifically pleased with the service of Mr Abul Bashar and Mr Abu Bakor. They were very efficient. A great experience so far.</t>
+  </si>
+  <si>
+    <t>Sasha M</t>
+  </si>
+  <si>
+    <t>As someone who comes to Dhaka very often, I found the perfect, quite place to stay; Ascott Residence in Baridhara - road 8. I like this hotel because I feel not only safe here, also relaxed and rejuvenated. After spending a day in noisy and dusty Dhaka, coming back to Ascott Residence makes me feel like Iâ€™m in paradise, similar to travellers coming across an oasis after a long journey in the desert. Clean rooms, friendly staff, which are always willing to help and assist, and good quality food from many cuisines.  I have stayed in many hotels in Gulshan, Banani, and Baridhara, and amongst all of them, I would choose Ascott Residence. It has the best dollar value.</t>
+  </si>
+  <si>
+    <t>H.M</t>
+  </si>
+  <si>
+    <t>Today we chose the special menu, seafood plate, at the hotel restaurant. The food was very tasty. The guidance and service provided by the support staff, Mohammad Ali and Ana Emon, was excellent. Thank you for your continued support during our stay at the hotel.</t>
+  </si>
+  <si>
+    <t>A quiet, cheerful place. Sonia in the dining room was fantastic, as were all the folks at the front desk. The neighborhood is walkable and the rooftop terrace is serene. Very glad I stayed here for four days; I would come back to Ascott The Residence in a heartbeat.</t>
+  </si>
+  <si>
+    <t>Tsumio H</t>
+  </si>
+  <si>
+    <t>Everything is smooth. Every day newspaper is provided. It is vey Comfortable. I enjoyed Nice airport shuttle service. I Will come back again. Thank you  Mr. Tarik. Sometimes I enjoy room upgrade for free.</t>
+  </si>
+  <si>
+    <t>Anisa</t>
+  </si>
+  <si>
+    <t>Wonderful ambiance, friendly staff, beautiful rooms. It was truly a pleasure to stay at the Ascott Residence and I would highly recommend this hotel to other business travellers. I will definitely return here in the future. Thank you!</t>
+  </si>
+  <si>
+    <t>Jan Fredrik P</t>
+  </si>
+  <si>
+    <t>Excellent hotel with excellent Hospitality by  front office dept . Specially Fahad behivors is amazing .and all servive is good. Restaurant and food is good. Thanks for all.  Regards,  Jan Fredrik Pattikawa</t>
+  </si>
+  <si>
+    <t>Pitom Mustafi</t>
+  </si>
+  <si>
+    <t>Undoubtedly a place where I love to stay while staying in Dhaka let it be my business trip or personal one. The restaurant guys serves the exact one which is asked while the behavior allows to feel cozy and experience the best suited place for me.</t>
+  </si>
+  <si>
+    <t>å’Œå­ ç§‹</t>
+  </si>
+  <si>
+    <t>very clean room and friendly staff. breakfast was also very nice. they allowed staying us until we move to the airport with free of charge! thank you, Mahmud! definitely stay again! location is also good.ã€€</t>
+  </si>
+  <si>
+    <t>Capt .Afshar</t>
+  </si>
+  <si>
+    <t>Experienced good stay with respectable staff.  I selected this hotel after visiting 6 hotels in Dhaka and tested 4 hotels in the country. This is the best with comparison with the price.  The location is good, calm and suitable especially for those are working with embassies as it is in same area.  Especial thanks to Sonia &amp; Nipune as managing the restaurant perfectly and for beautiful given flower, but everybody tried their best for me to enjoy.</t>
+  </si>
+  <si>
+    <t>Gigin P</t>
+  </si>
+  <si>
+    <t>All hotel staff are friendly and helpfully . Breakfast's menu is always fresh . Room is big and clean with more than 200 tv channel .  That location is in barridhara so close to the jamuna shoping mall and my office at Ghulsan area .</t>
+  </si>
+  <si>
+    <t>Micke M</t>
+  </si>
+  <si>
+    <t>Bourique style hotel with friendly staff and nice, clean and silent rooms. Located in secluded and calm baridhara, diplomat district and close to airport and downtown. Perfect three day stay in busy Dhaka.</t>
+  </si>
+  <si>
+    <t>Alexandre H</t>
+  </si>
+  <si>
+    <t>The Ascott hotel is a good option for any kind of traveler.  And staff is very nice and helpful. Thank you so much for Mr. Robin at front desk to be very efficient and friendly. And also for Mr. Sohagh for all the time being friendly and also helping carrying the luggage. I strongly recommend Ascott.</t>
+  </si>
+  <si>
+    <t>Suresh P</t>
+  </si>
+  <si>
+    <t>It is surprising to find such a hotel in busy crowded city of Dhaka to find such a safe and environment friendly hotel to enjoy restful stay and eat at well desirable restaurant  where you are served with great care.  Very good staff - Basher, Arfan Emon</t>
+  </si>
+  <si>
+    <t>Nad H</t>
+  </si>
+  <si>
+    <t>This place is a gem.from the receptionist to all the staffs,they were very friendly that we felt definitely at home.mr Harun from f&amp;b royal treat will always make sure our baby's food is also ready for dine in. Everyday.mr Anwar from housekeeping dept was very helpful in making sure our room is always clean and special thanks to mr Habibur from concierge for taking care of all our belonging and definitely to ms Zannat our beloved receptionist,she helped me a lot during my stay here.these experiences are truly memorable for us whole family and we will definitely visit this place again  ðŸŒ¹ðŸŒ¹ðŸŒ¹</t>
+  </si>
+  <si>
+    <t>Taiebur Rahman</t>
+  </si>
+  <si>
+    <t>I fill comfortable and they are service is good enough. All the staff always served with  a smiley face. The recipe offered by them for guest are healthy. They try to meet the customer requirement even try their level best.</t>
+  </si>
+  <si>
+    <t>Jack H</t>
+  </si>
+  <si>
+    <t>Ascott the residence is a nice quiet and clean hotel. The service is excellent. Mr basher and mr shahadad were extremely helpful throughout my stay. Would definitely recommend to guests travelling to Dhaka, Bangladesh.</t>
+  </si>
+  <si>
+    <t>Evren S</t>
+  </si>
+  <si>
+    <t>Every time I visited Ascott it feels like partly arriving home. The staff is welcoming, especially Sonia gives big effort to make me happy. The rooms are clean and spacious. There are plenty of international food options in the menu of the restaurant and most of them have decent taste. Highly recommended!</t>
+  </si>
+  <si>
+    <t>Atsushi M</t>
+  </si>
+  <si>
+    <t>They were able to meet my various requests, including extending my stay. During the first part of our stay, breakfast was on order every day due to Covid19. When I stayed there in June this year, they served mangoes for breakfast, which was delicious, but I was little disappointed that there were no mangoes this time..</t>
+  </si>
+  <si>
+    <t>Shun. M</t>
+  </si>
+  <si>
+    <t>The hotel staff was so kind to me, especially Sonia, Mahbub, and Zannet. This was the first time to visit Bangladesh, so I didnâ€™t know enough information, like foods, coffee, stores. They kindly told me about it, and those were really nice! Again, thank you so much for your support and giving me special milk tea as well!!</t>
+  </si>
+  <si>
+    <t>Alal</t>
+  </si>
+  <si>
+    <t>It was nice to stay here with great hospitality and service. They are good at hospitality. Food serving at room and continuous takibg care behavior was good. From restaurant they were also good at food serving. Keep goes on like this.</t>
+  </si>
+  <si>
+    <t>Saifullah M</t>
+  </si>
+  <si>
+    <t>in entering the hotel looks quite ok, but only to go to the restroom shows exact what is the standards here. Staff members are not paying attention to new guests only frequent people. the food is not very good at the restaurant and served cold and underdone. i asked to speak to the cook but was told he left early. no manager around only a suoerviser. not professional at all. meeting room very dark and not clean.</t>
+  </si>
+  <si>
+    <t>Shahriar R</t>
+  </si>
+  <si>
+    <t>I frequently visit Ascott The Residence for family visit as well for business. I would like to say that i have found Mr Tuhin Mollah always dedicated for his work, he is well.manered, knows whT hia jib is very well, I wish him all the best.</t>
+  </si>
+  <si>
+    <t>Noel C</t>
+  </si>
+  <si>
+    <t>Safe location, adequate amenities, great staffs and service. Heheh no sale of liquor though. Rates are reasonable. High marks for hospitality, among others. Had a light conversation with a staff named Tuhin.</t>
+  </si>
+  <si>
+    <t>Manuel Orellana</t>
+  </si>
+  <si>
+    <t>Really a nice stay, the restaurant host Ms Dewan and the staff is always ready to help you out with your needs. Different kinds of foods for asian regions gives you the choice of try different things every single day   Recommended</t>
+  </si>
+  <si>
+    <t>Its a satisfied experience staying in Ascott The Resedence. The behaviour of the staff are really careful and respectful. Especially Mohammed Monir uddin(GRO) is the very good person.I come back again in this hitel</t>
+  </si>
+  <si>
+    <t>Abdul A</t>
+  </si>
+  <si>
+    <t>It had been a good stay, the staff were hospitable including housekeeping Mr. Harun and he had made my stay comfortable. Everything was good there the food which had come to my room and all the services was great.</t>
+  </si>
+  <si>
+    <t>Geeno G</t>
+  </si>
+  <si>
+    <t>I am satisfied Experience in staying in Ascott the residence. Mr. Md Ruhul Amin the dinner and breakfast orders are customizing as per my requirements and Mr. Harun the housekeeping person is done a good job while cleaning.</t>
+  </si>
+  <si>
+    <t>I spent 3 days here on business,I must say that everything was excellent,the room is very comfortable ,good services good  house keeping thanks for Mr.Harun he did the good job  I would recommend this hotel to other having a business trip</t>
+  </si>
+  <si>
+    <t>Rony Kumar Dey</t>
+  </si>
+  <si>
+    <t>I stayed this hotel for couple of days for business tour. Their services were good specially their support staff behavior. They always tries to meet the user expectation. As an example I requested for customize dinner in couple days &amp; they tried to manage the foods accordingly.</t>
+  </si>
+  <si>
+    <t>Nur</t>
+  </si>
+  <si>
+    <t>It a Satisfied experience staying in Ascott the residence. The behaviour of the staffs are really cheerful &amp; respectful. The environment is safe and sound, happy to be a part of it. Hope we will meet again Best wishes ðŸŒº</t>
+  </si>
+  <si>
+    <t>Rohana</t>
+  </si>
+  <si>
+    <t>It was a great experience, The place was so good as well as the food,service...We are Highly pleased with the behaviour of stuffs and their services  specially Sonia ,Tuhin  and  Mahmudul they are so good at their services.... We  highly recommended Ascott the residence</t>
+  </si>
+  <si>
+    <t>Fuad</t>
+  </si>
+  <si>
+    <t>Overall service is so so but hotel view isn't that much fascinating, even the hotel doesn't have a proper gate to recognize from outside. Service people are co-operative  as well as their restaurant people's that's  a positive side.</t>
+  </si>
+  <si>
+    <t>Rajib Saha</t>
+  </si>
+  <si>
+    <t>Truly appreciate your team support,  service &amp; hospitality got during my time in Ascott the Residence. I believe everyone will feel same comfort here or even better. You guys are amazing!ðŸ™‚. GOOD LUCK.</t>
+  </si>
+  <si>
+    <t>World Traveller 009</t>
+  </si>
+  <si>
+    <t>In 2021, I stayed six months in Ascott Residence in Dhaka.  Under Covid-19 crisis, Mr.Nayeen and his team garantied all guest's helth security permanently 24/24H, meanwhile I could stay safe and feel protected from any risk during my stay in your hotel. Moreover, I recognised that it is quiet difficult to keep service level under such a sensitive situation. That is reason why, I really appreciated your efforts and professional attitude in service under such a situation. Off course, I sould not forget to menton meal quality of break fast, lunch and dinner in ground floor. Thank you very much for your efforts, good luck for the future.</t>
+  </si>
+  <si>
+    <t>Maroni</t>
+  </si>
+  <si>
+    <t>After about 4 years not coming to Dhaka. This year during covid pandemic I need come over to Dhaka again for work this year Prior go to location need to have 2 x negative covid test. Ascott residence have good staff all of them are kindly to help you. You room cleaning everyday. Mr. Rupon das such a kind staff room boy that clean my room perfectly. Good and recommended hotel to stay. One more. You will get good food during your stay..</t>
+  </si>
+  <si>
+    <t>H. Takagi</t>
+  </si>
+  <si>
+    <t>I have stayed Ascott from 29 June to 21 July. All of staffs are cheerful and cooperative to our work. I really feel gratitude for them and this first trip to Dhaka should be great memory. Namu Shinnyo</t>
+  </si>
+  <si>
+    <t>Ryo</t>
+  </si>
+  <si>
+    <t>I stayed about 40 days in Ascott Residence Hotel. Facility is a little old, however house keeping is very good so I could stay comfortably. Especially, my room service staff Mr. Suicongon and Mr. Ahumdol are very kind service for me. Thank you very much.</t>
+  </si>
+  <si>
+    <t>Nuttawut</t>
+  </si>
+  <si>
+    <t>Itâ€™s great service from hotel. The staff are friendly and always care about me if I have any problems. Thank you Mr.Rupon Das for taking good care of everything. I am very impressed and will stay again.</t>
+  </si>
+  <si>
+    <t>BIDYUT Kumar Sarker</t>
+  </si>
+  <si>
+    <t>I stay here in Asscott the residence, dhaka for five days.  I have found there hospitality and food was good. Staff were very cooperative and helpfull. I am satisfied about there behaviour. Overall services was good. Thanks to Ruhul, Sonia &amp; Rupom for your care.</t>
+  </si>
+  <si>
+    <t>MD Shimon Aziz</t>
+  </si>
+  <si>
+    <t>Really a pleasure stay in this hotel while all the staff guided and followed by strick covid protocol. During my 4 day stay in this hotel have found all the staff from dining to housekeeping are so much engaged to served with best to his guest. I have meet Mr. Rupon Das as housekeeping staff and really amazed to his nice and polite behaviour with all his experience and dealing with his guest.  Food was really good and during covid all food served in individual room with maintaining high level of sanitizing. Food price need to review as some of the item looks so expensive considering the item itself.  Happy staying</t>
+  </si>
+  <si>
+    <t>MIKA HASEGAWA</t>
+  </si>
+  <si>
+    <t>This is the 2nd business trip in Dhaka. Japanese feel anxious about traveling to Dhaka at first because Dhaka and Bangladesh are not very familiar due to their long distance. But this hotel provides great hospitality and satisfies many Japanese. The room is kept clean every day by nice house keeping/room attendant, including Harun who is in charge of my room this time. Hot shower and bathe can be enjoyed every day, which is beneficial for Japanese as well. The restaurant food is also good, though the limited kinds of dishes in breakfast and uneven taste sometimes disappoint me. However Tania, a nice cooker in the restaurant, cooks very well and her soup is excellent for most Japanese.  2åº¦ç›®ã®ãƒ€ãƒƒã‚«æ»žåœ¨ã§ã™ã€‚ãŠã‚‚ã¦ãªã—ãŒè¡Œãå±Šã„ã¦ã„ã¦ã€æ—¥æœ¬äººã®æ»žåœ¨ã‚‚å¤šãã€ã¨ã¦ã‚‚éŽã”ã—ã‚„ã™ã„ã§ã™ã€‚â€¦</t>
+  </si>
+  <si>
+    <t>takeshi k</t>
+  </si>
+  <si>
+    <t>This is the 3rd visit in Ascott the Residence Dhaka.  I've received daily service from Mr. Rupon, one of the housekeeper in this hotel. He accepts all my requests and very eager to give me hospitalities every day.</t>
+  </si>
+  <si>
+    <t>Mika Hasegawa</t>
+  </si>
+  <si>
+    <t>This hotel is cleaned up. My housekeeping person, Mr. Rupon Das, is always cleaning my room every day very hard so that I lead comfortable business travel days  here. æ¸…æ½”ã•ãŒä¿ãŸã‚Œã¦ã„ã¦ã€ã¨ã¦ã‚‚ã‚ˆã„ãƒ›ãƒ†ãƒ«ã§ã™ã€‚ãƒã‚¦ã‚¹ã‚­ãƒ¼ãƒ”ãƒ³ã‚°ã®æ–¹ãŒæ¯Žæ—¥ç†±å¿ƒã«æŽƒé™¤ã‚’ã—ã¦ãã‚Œã‚‹ãŸã‚ã€éƒ¨å±‹ã‚‚æ¯Žæ—¥å¿«é©ã«ä½¿ãˆã¦ã„ã¾ã™ã€‚</t>
+  </si>
+  <si>
+    <t>Fazlur R</t>
+  </si>
+  <si>
+    <t>Good place to stay with very supportive and decent service team/ comfortable arrangement and restaurant service.  Special thanks to Tuhin / Ruhul and Tasfia for your warm hospitality.  Appreciate your efforts.</t>
+  </si>
+  <si>
+    <t>Sonia and her team is excellent. Sumsouzzaman Dewan is best person. I got nice attitude and services from them. Hotel is a good one. Food and other services are ok. Food service at room is neat and clean.</t>
+  </si>
+  <si>
+    <t>Seiichi N</t>
+  </si>
+  <si>
+    <t>It was really nice hotel in Dhaka, especially its room service and house keeping. The taste of the meals were good, but it took 30 to 40 minutes for the room service. Mr. Rupon was really helpful for keep the room clean during my stay in the hotel.</t>
+  </si>
+  <si>
+    <t>Saifullah Limon</t>
+  </si>
+  <si>
+    <t>During my stay at Hotel Ascott Residence from 25-29 June 2021, I found housekeeping assistant Mr. Rupon Das helpful &amp; enthusiastic for delivering world class service. I'm wishing good luck for this smart guy so that he will continue delivering his best.  Saifullah Limon Chevron Bangladesh</t>
+  </si>
+  <si>
+    <t>Sadeaque</t>
+  </si>
+  <si>
+    <t>Place is very cool and calm. They improved their food quality especially for Bangladeshi people. For their more improvement they should change their room furniture.  Furniture are old fashioned and looked dirty. Their room service is very good. Especially Mahamudul Hasan was very professional and decent. Hope their future success.</t>
+  </si>
+  <si>
+    <t>Kawsar S</t>
+  </si>
+  <si>
+    <t>Its good services from the hotel. They improved their service from past.  Specially Room service by Rupon Das a very helpful and coordial person to serve. Ascott improves its food quality also. This time I am very much happy to stay here.</t>
+  </si>
+  <si>
+    <t>OHFU</t>
+  </si>
+  <si>
+    <t>The staff are friendly and always care about me if I have any problems. In fact, when I told the receptionist that I wanted to use the microwave oven in the room, they came to set it up later that day. Life in Bangladesh is difficult for Japanese people, but the hospitality, delicious Bengali meals and hot baths make it a good place to relax for a long stay. There is also a small supermarket on the road next to one, and Japanese cup ramen and Pocari Sweat are also available, so you may feel safe when you are homesick.   Thank you very much to Mr. Rupon, who works like my concierge.</t>
+  </si>
+  <si>
+    <t>PIPA</t>
+  </si>
+  <si>
+    <t>For business, I have stayed here 3 months. All staff is too much kindness and try to their best for us staying comfortable. Especially Mr.Rupon Das housekeeping staff, and Mr.Morra and Ms.Sonia restaurant staff, thanks for about helping my some troubles and working hard. Allah hafis!!</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel 15 days during my mandatory institutional quarantine period. Everybody was very helpful, friendly and professional. It is hard balance these. Especially, Sonia in the restaurant make feel like special guest and all kitchen staff tried to do their best to accommodate my needs. Definitely will come back.</t>
+  </si>
+  <si>
+    <t>Kazuhiko S</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel for over a month. It was so comfortable that I didn't want to leave. During my stay, I was lonely on my birthday, but the hotel staff seemed to be aware of it, so I received a surprise present with a cake. I was very happy with their concern. All the staff are kind, friendly and polite. Thanks to that, I had a very good time. They responded promptly and politely in the event of some trouble, such as the noise of neighbors or the lack of internet access. And all the food in the restaurant is delicious. Especially, the shrimp dopiaza is the best. If you ask for breakfast, it will brew a very delicious cappuccino. This hotel is just like my hometown in Dhaka.</t>
+  </si>
+  <si>
+    <t>Biswajit B</t>
+  </si>
+  <si>
+    <t>Hotel staff &amp; facility are good. I enjoyed my stay.   Decent, hygienic and COVID safety measures in place.   I stayed there for business purpose, overall hospitality was great.   The location of the hotel is the most secured and quiet placed.</t>
+  </si>
+  <si>
+    <t>Md. Abdullah-Al-Muqit</t>
+  </si>
+  <si>
+    <t>Hotel: Ascott the Residence Check in: 19 Mar 2021 Check out: 24 Mar 2021 Room no.: 506  3 unparallel services for which I recommend Ascott: 1) Restaurant in-charge Sonia's sincerity, efficiency, responsibility &amp; punctuality. 2) Special dishes: Chef Kilpot's Taki fish mash (vorta). 3) Excellent Room service (Especially Hasan, Tuhin, Bayjid &amp; Tanvir).  I heartily remember Mr. Sizar who was very amiable and professional but is not currently working with this hotel.</t>
+  </si>
+  <si>
+    <t>Been there for five days and has a awesome experience regarding most of the service they provided The staff's are really friendly and service delay is minimal while the food was also good when you choose for traditional items. have little mosquito issue but after aerosol spray it's okay.</t>
+  </si>
+  <si>
+    <t>Mahdi Talha</t>
+  </si>
+  <si>
+    <t>Excellent service and COVID safety measures in place. the best of the best is staff's behaviors, professionalism, and remarkable communication skill. I stayed there for more than 10 days due to business purpose and found cleanliness, timely food, and laundry services. the overall hospitality was great and special thanks to Mr. Harun and Mrs. Sonia for their professionalism. The location of the hotel is the most secured and quiet placed in the busiest Dhaka city. Recommended.</t>
+  </si>
+  <si>
+    <t>Badhan Bhowmik</t>
+  </si>
+  <si>
+    <t>I have been staying in Ascott the residence for several times during this pandemic situation due to business purposes. I must say they have shown thoughtfulness in terms of hospitality, room services and cleanliness. Mr. Ceaser and Ms. Sonia were very proactive in ensuring all my requirements during my stay.   Nevertheless they have some improvement opportunities in terms of food preparation. I felt that the food menu could have been more versatile.  Overall I am pleased with their service and hospitality.  Recommended!!</t>
+  </si>
+  <si>
+    <t>Dr. Sadia Afrin</t>
+  </si>
+  <si>
+    <t>I stayed here for couple of days n the service was quite impressive. Hospitality,food,prompt response to any problem,cordiality everything was so amazing that I started feeling at home. I must mention about Mr.Nobel from restaurant team &amp; Mr.Reaz from reception team who were too supportive thoroughout my stay here as I got sick during my post COVID duty isolation period.They managed drugs immediately for me &amp; adjusted menu according to my taste.  The hotel is clean &amp; offers a good view also.</t>
+  </si>
+  <si>
+    <t>alaminsabuj d</t>
+  </si>
+  <si>
+    <t>Excellent service and all staff are very much cordial especially front desk officer Mr. Mahfuz. He was very good person and friendly. Personally I think i like him very much also best service provider in this hotel. Highly recommended to visit Ascott hotel if you are in short trip or business work. Good environment, nice place for workout.SPA and other facilities are available. Location was perfect and itâ€™s a feeling like i was out of Dhaka, it was almost noise free hotel.</t>
+  </si>
+  <si>
+    <t>Nazmul Naim</t>
+  </si>
+  <si>
+    <t>The hotel is clean and provides great hospitality.  The front desk service provideer Mr.Robin is very much gentle and a very good guy.His behaviour was awasome.  The Restaurant and room service provider Mr.Nobel(He is best in resturant and room service),Mr.Tuhin and a woman(name can't remember)is very helpful.  The housekeeping and room cleaning service provider boys are really great.They always fulfilled our dimand or any need.  The other staffs specially Mr.Sohag were very helpful. The car drivers were also good. The hotel provided me almost every facilities.  The rooftop cafeteria and gym of hotel was great.  Overall experience was awesome.  I'll recommend this hotel to every couple and families:).</t>
+  </si>
+  <si>
+    <t>Dr.Zinat Sultana Sharmin</t>
+  </si>
+  <si>
+    <t>I left Ascott the residence,Dhaka yesterday.I stayed there for 3weeks for my covid duties in BSMMU.Rooms were well decorated&amp; clean.House keeping service was good, especially i would like to mention Tania, she was very helpful.Restaurent service was ok,all were very helpful for us especially Mr.Nobel of restaurant. All services were satisfactory but one thing, i must mention that food seletion(menu) was not so good.It should be more tasty especially the vegetables with onion was  undercooked.Fried rice was tasty but the vegetable curry, chicken curry was not good, rather fried chicken was good.Desserts were tasty especially pudding , payes.I enjoyed all. Security service was excellent. I enjoyed my quarantine period happily.Thanks for your hospitality...wish u all the best.</t>
+  </si>
+  <si>
+    <t>Reaz Saimum</t>
+  </si>
+  <si>
+    <t>Located just near the US Embassi(perfect location)  The hotel is clean and provides u great hospitality.  The Restaurant and room service provider  Mr.Nobel is very helpful and will guide u throughout your stay.  The staffs were very helpful. The hotel provides u almost every facilities.  The rooftop cafeteria and gym of hotel was great.(i mean it :))  Overall experience was awesome.  I'll recommend this hotel to every couple and families:).   You wont regret,just be there:)</t>
+  </si>
+  <si>
+    <t>Dr. Munim</t>
+  </si>
+  <si>
+    <t>Tomorrow i will leave this hotel. I have stayed here for 3 weeks.  I am fully satisfied with their services. All the staffs are very co-operative. Foods are tasty. Room is well decorated and clean. Among all the staffs i specially want to mention Mr. Hasan, Mr. Surongon of housekeeping department and Mr. Nobel of restaurant. They know their jobs best. I wish to visit here again.</t>
+  </si>
+  <si>
+    <t>Rakibul Hasan</t>
+  </si>
+  <si>
+    <t>Location of this hotel at diplomatic area, very calm and quiet region of dhaka. They have well mannered and well behaved staff, all are sincere and responsible to service. Room are well equipped and modern facilities present, food are also food.</t>
+  </si>
+  <si>
+    <t>Zobair Alam</t>
+  </si>
+  <si>
+    <t>Excellent service. Highly recommended if you are in short trip or business work. Good environment. Love the foods. Nice place for workout and guess what Spa and other facilities. The surrounding security is also fantastic</t>
+  </si>
+  <si>
+    <t>shahidur r</t>
+  </si>
+  <si>
+    <t>service and food is satisfactory.Food was good.House keeping was timely and satisfactory.There was 2 complementary laundry each day. Hotel room was beautiful and comfortable. Alsothere is a beautiful roof top. Location was perfect and its a feeling like i was out of dhaka, it was almost noise free.But Gym. need a bit maintainance.All service men were friendly.Over all i am satisfied and recommend it for visitors</t>
+  </si>
+  <si>
+    <t>Ashek Shuvo</t>
+  </si>
+  <si>
+    <t>We visited the hotel to stay away from our family during COVID duty. The service here is excellent. All the staffs are very much co-operative..Among them, I can name Mr. Mahfuz, Mr. Motin, Mr. Mahmudul.. And the food was excellent...  If u have any discomfort, u have to just ask the authorities and ur wish is granted. Moreover, they served a birthday cake for one of our colleague during our stay and it was complimentary...  I wish this hotel all the best and surely recommend it to u all...</t>
+  </si>
+  <si>
+    <t>Tasfia j</t>
+  </si>
+  <si>
+    <t>All staff are very much cordial epeially tania and novel.Foods are are so much delicious and desert are awesom.  Especial thanks for for my birthday cake which are so much testy.they maintain proper hygiene in that pandemic.</t>
+  </si>
+  <si>
+    <t>Amirul I</t>
+  </si>
+  <si>
+    <t>I was visited for business purposes.when I entered the hotel I looked staffs of this hotel are all friendly.The front desk officers are very accommodating and so kind. basically Mr.Mahfuz was excellent security and bell boy are also good. The restaurant staff are all very pleasant and friendly.Food was excellent.when I free I will visit this place again.</t>
+  </si>
+  <si>
+    <t>martin w</t>
+  </si>
+  <si>
+    <t>The location was great for my offices, the rooms are very clean and functional, I loved the different teas. The staff were superb, especially Sarowar on the door who was like my brother during my stay. The restaurant has something different everyday and the chef offered to prepare british food if I was homesick!</t>
+  </si>
+  <si>
+    <t>Mazumder J</t>
+  </si>
+  <si>
+    <t>The staff of this hotel are all courteous and friendly. The front desk officers are very accommodating and they remember you by name and your your needs. The restaurant staff are all very pleasant and friendly, especially Sonia and Gloria.</t>
+  </si>
+  <si>
+    <t>SanjoySanyal</t>
+  </si>
+  <si>
+    <t>Writing this during the pandemic. Not sure when i can visit the hotel again. We stayed in Mid March and I wanted to say a word of appreciation for Farhad in the front desk who used to give us travel tips. Hope I can stay in the hotel sometime in the future</t>
+  </si>
+  <si>
+    <t>Jannette Pascual</t>
+  </si>
+  <si>
+    <t>The staff of this hotel are all courteous and friendly.  The front desk  officers are very accommodating  and they remember you by name and your your needs.  The restaurant staff are all very pleasant and friendly, especially Sonia and Gloria.</t>
+  </si>
+  <si>
+    <t>JapanStreetInauguration</t>
+  </si>
+  <si>
+    <t>Sonia in the resturant was very kind and cheerful.  She made the breakfast more enjoyable.  Her enthusiasm and professionalism to serve and guests, make guests comfortable, etc. were manifest each time I visited the restaurant.  It made me welcomed and gave the place a more familiar and "my" place kind of feeling. The guest room had a strange low-frequency humming noise in some locations but not the other.  For example you'd notice that hum on one side of the bed, but if you move the head to the other edge of the bed, it becomes almost inaudible.  It was the loudest where I'd sit and work on PC at the desk.  It persisted when A/C was off, and sometimes it stopped, and restarted.  No idea.   Two other problems: The bath room has a mechanical ventilation fan installed in a smallâ€¦</t>
+  </si>
+  <si>
+    <t>Debbie</t>
+  </si>
+  <si>
+    <t>Spending time at Ascott restaurant is amazing especially when TUHIN, MASUD, SONIA and HARUN are around. My mind still reflects their big smiles and treat. Would love to come to the hotel and enjoy the services again and again. You all keep up a good job.</t>
+  </si>
+  <si>
+    <t>The ascott is very good and clean the restaurant has an extesnive menu and Bashir and Sonia will look after you well. Also Sarowar on the door will become your good friend! Highly recommended. The Ascott is a home from home.</t>
+  </si>
+  <si>
+    <t>Ravi R</t>
+  </si>
+  <si>
+    <t>This hotel is located in Embassy area and is more safer for foreigners and hospitality is pretty awesome especially Ms. Gloria &amp; Mr. Bashar at the Restaurent was so co operative along with the other staff.  Thanks to Ascott Team for a comfortable stay .</t>
+  </si>
+  <si>
+    <t>Umma A</t>
+  </si>
+  <si>
+    <t>After my trip in Bangladesh working as a nursing instructor in Tangail, this space was the perfect place for me to replenish my self. I liked the massage I got especially and the food and the service in the restaurant were impeccable. I highly recommend BTW I am so delayed to write this I was there last winter in 2019 and I am finally sitting down to write my review. Sorry Sonya for the delay!</t>
+  </si>
+  <si>
+    <t>Sundar T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The hotel was booked through my admin team I find it nice and the hospitality is so nice so like to address from the airport starting at early morning 2:30 am till now the service is outstanding  The way they treat people with a big smile and take care of you where you donâ€™t feel you are in a hotel  Few days missed breakfast but itâ€™s was nice experience with dinner overall the food experience was great naming few by name Gloria the smart breakfast person bhasar and the whole team working on was great tuhin smile makes my day more enjoyable  The missing part is the spa and the gym my bad luck both are under maintenance   </t>
+  </si>
+  <si>
+    <t>KingKa</t>
+  </si>
+  <si>
+    <t>Locates in a very safe zone of the city. Room is big. High-quality towels. Good hospitality of staffs. Average breakfast.   Beware of mosquito !. Not just in the hotel room but in general of Dhaka city.</t>
+  </si>
+  <si>
+    <t>The room rate is bit pricy as there is no room for selection around the town since the 2016 terror attack.   I was not satisfied with the associates naming customer with such a loud voice form morning till late since they were trained in that way. But I would request to the hotel managers to ask him/ her not calling my name all the time in the public. Room is pricy and the facility shall be updated particularly the health gtym. ã‚¸ãƒ ã¯ç‹­ãã¦ã€æ–½è¨­ãŒå¤ã„ã€‚ä»–ã«é¸æŠžãŒãªã„ã‹ã‚‰ã€ãŒã¾ã‚“ã—ã¦ã„ã‚‹ãŒã€ã“ã®ä¾¡æ ¼å¸¯ã§ã¯ã€ç´å¾—ã§ããªã„ã€‚æ¸¡èˆªè¦åˆ¶ãŒãƒªãƒ•ãƒˆã•ã‚Œã‚Œã°ã€ä»–ã®ãƒ›ãƒ†ãƒ«ã«ç§»ã‚ŠãŸã„ã§ã™ã€‚</t>
+  </si>
+  <si>
+    <t>Josef M</t>
+  </si>
+  <si>
+    <t>Me and my wife recently stayed at Ascott the Residence for a longer period and were nothing else but very pleased. An incredibly friendly staff all the way from general manager to housekeepers, we always felt at home.   The restaurants provided great food for dinner as well as an excellent breakfast that was even further improved our last week there. And we were always happy to have a chat with the staff while we were there.   We cannot other than warmly recommend everyone to come here.</t>
+  </si>
+  <si>
+    <t>Gunjima</t>
+  </si>
+  <si>
+    <t>I stayed at Ascott Residence for three months for my business trip. It was my first time in Bangladesh, but the staff at Ascott Residence did everything they could to make me feel welcome. The hospitality of this hotel is amazing!! Special thanks to the staff at the restaurants and the concierge who greeted us and talked to us everyday. 100% would come back again.</t>
+  </si>
+  <si>
+    <t>Hiro</t>
+  </si>
+  <si>
+    <t>Every person is so kind and special for guest. In my staying, there were not any problems. Just one point, Iâ€™d like to request to install bar-alcohol service.  And if we can have a pool , itâ€™ be perfect :)</t>
+  </si>
+  <si>
+    <t>Amrit Shakya</t>
+  </si>
+  <si>
+    <t>The environment is very great and the staffs are very friendly. Located in peaceful environment the hospitality is at its par. Lovely place for short or even long trip. Will recommend to choose Ascott for your visit.</t>
+  </si>
+  <si>
+    <t>Placed in a very safe and secured zone. Friendly enough with professionalism. The accommodation, the food, the amenities are simply great. Most importantly, the service we have been provided is good enough.</t>
+  </si>
+  <si>
+    <t>T D</t>
+  </si>
+  <si>
+    <t>Very nice hotel with comfortable rooms and facilities, very clean and hygienic. Good food and especially great coffee!!! Great for business travel in a safe part of Dhaka. The staff are outstanding in all areas.</t>
+  </si>
+  <si>
+    <t>There food service was great. The atmosphere was too good specially rooftop,behavior of all the staff is excellent. Overall the service was great. We are satisfied with their service. A good experience with them.</t>
+  </si>
+  <si>
+    <t>Yukinobu MIYAMOTO</t>
+  </si>
+  <si>
+    <t>This accommodation is placed in safety area and suitable for business trip for foreigners. Every facilities are clean and neat and clerks are so kind. If you come to Bangladesh, I recommend you to stay here.</t>
+  </si>
+  <si>
+    <t>Frequent Dhaka Visitor</t>
+  </si>
+  <si>
+    <t>ASCOTT is the hotel I very often stay when I come to Dhaka. It is located in a safe district, and the service provided by hotel staff is comfortable. They were kind enough to support anything she needed when my friend injured her leg.</t>
+  </si>
+  <si>
+    <t>tewantin2012</t>
+  </si>
+  <si>
+    <t>I spent nine consecutive working days at the hotel as part of a work commitment. The hotel is located in the oasis of the leafy diplomatic district. I was not an in-house guest but I used the hotel facilities and had a delicious lunch there every day.The team does a wonderful job in making guests feel welcome, including remembering names and how you like your coffee, and the food in the restaurant was always fresh and tasty. All the staff I met were great but Sonia was a standout. Thank you for a memorable experience.</t>
+  </si>
+  <si>
+    <t>Alam Khorshed</t>
+  </si>
+  <si>
+    <t>I stayed one night at Ascott on my way to Berlin to attend a theater Festival as a guest of the Goethe Institute, and I was pleasantly surprised to discover this nice little hotel offering top quality service and amenities. Strongly recommend for others and wish the owner and management of this classy hotel good luck.</t>
+  </si>
+  <si>
+    <t>Samrin alam</t>
+  </si>
+  <si>
+    <t>Having completed a successful training session.The environment is good enough &amp; the service also.They are so humble.Most importantly their staffs have made my program incredible.Mr. tuhin &amp; Mrs. farzana contributed a lot to Carry out our training conveniently in an efficient way.They r very fast at service as well as polite also.Their service have made me feel honoured.They have served to all our trainee timely and ensured the best service.They have always handled all the tiny problems patiently &amp; gave us a no problem vibes.Moreover it was a great meeting in this hotel with these well behavioral staffs.Hope will be there again to grab their most comfortable services.</t>
+  </si>
+  <si>
+    <t>Mamoru M</t>
+  </si>
+  <si>
+    <t>As a frequent traveler to Dhaka, I usually stay at Ascott. The hotel is comfortable and meets most of my needs. It's nice that most of the staff has remembered my name. As usual, great service provided by team of Mr. Jasim, Arfan, Delwer at the restaurant.  Keep up the good work.</t>
+  </si>
+  <si>
+    <t>Vachel M</t>
+  </si>
+  <si>
+    <t>I stayed at the Ascott for several days in May 2019.  Super friendly staff...always a smile!  The dining room staff are extraordinarily kind and pleasant, even offering special ginger tea to help me recover from a cold!  Overall, clean and quiet, and very comfortable.</t>
+  </si>
+  <si>
+    <t>Hafeez</t>
+  </si>
+  <si>
+    <t>Very clean . Organized. Safe and convenient.  Pleasure to stay at. Breakfast  and coffee is amazing and staff is very helpful. They got my laundry done at amazing speed. Will definitely stay here again on my next trip</t>
+  </si>
+  <si>
+    <t>Agnes A</t>
+  </si>
+  <si>
+    <t>Great &amp; helpful staff but room had a very unusual smell &amp; bed was extremely hard :(. I think that these can be improved. I understand that the hotel is relatively old. However, I havenâ€™t seen any mosquitoes or bedbugs so these are good :)</t>
+  </si>
+  <si>
+    <t>Mara P M</t>
+  </si>
+  <si>
+    <t>I stayed there for the second time for around 10 days. Staff is extremely nice and helpful. The location is very good, the rooms are very good (and clean) and the breakfast is very yummy and with a lot of variety.</t>
+  </si>
+  <si>
+    <t>Paul S</t>
+  </si>
+  <si>
+    <t>Ascott the Residence is in the Gulshan diplomatic area of Dhaka, in a quiet residential street close to several major embassies. It is under the airport flight path but the noise was not too bad. There is very little other than residential buildings within walking distance of the hotel, apart from a convenience store in Road 7 and another Ascott hotel in Road 6. As with most hotels in Dhaka there are security guards at the entrance to the car park who screen your bags with an xray machine and at the front door who screen you with a metal detector. The hotel is quite small but has two restaurants, a gym and a spa. The restaurants have a wide selection of good quality local, Asian and western meals, but these are subject to a service charge and VAT, which adds significantly to theâ€¦</t>
+  </si>
+  <si>
+    <t>fryermo</t>
+  </si>
+  <si>
+    <t>The hotel is placed in quiet and residential area of Dhaka. The rooms have good sizes, comfortable bed and good connectivity to the Internet. There are many places to have informal meetings with visitors and a terrace very pleasant terrace at the top floor. The staff is very helpful and amiable. I had a very nice second stay in this hotel.</t>
+  </si>
+  <si>
+    <t>All the services of the clerk is excellent. The room is always clean. I feel so comfortable whenever staying there. The location is in the most safety zone in Dhaka. Next time, I decide to make reservation again.</t>
+  </si>
+  <si>
+    <t>Peter T</t>
+  </si>
+  <si>
+    <t>Very good service. Any problem occurring is solved immediately. In the suites, there is also a little kitchen with micro oven, electric stove and different utensils for making small dishes. All channels available with 2 television.</t>
+  </si>
+  <si>
+    <t>Aleks D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My week at the Ascott Residence was very pleasant. It is a great hotel with spacy and clean rooms, friendly and helpful staff and a relaxing rooftop terrace where you can enjoy great coffee and the specialities of the Japanese cuisine. I would warmly recommend staying here if you are one a business trip or looking for a more quiet residency away from the hectic Dhaka. </t>
+  </si>
+  <si>
+    <t>I stay here regularly during our frequent business trips. We enjoyed dinner at "Chill 'n Grill" rooftop restaurant. Great service provided by Ms. Farzana and food was cooked very nicely by Chef Tania. Keep up the good work.</t>
+  </si>
+  <si>
+    <t>Rowena M</t>
+  </si>
+  <si>
+    <t>Iâ€™ve stayed at this hotel or itâ€™s sister hotel,  theee times now. The service is wonderful, all the staff are so friendly and helpful. The place is very clean and the food delicious (and does not make a UK tummy ill!). It has a superb coffee shop also which do good coffee and I admit, Iâ€™m a dreadful coffee snob! I highly recommend it.</t>
+  </si>
+  <si>
+    <t>Mohin Uddin Mizan</t>
+  </si>
+  <si>
+    <t>The Ascott Residence was a wonderful place for training in a quiet location in Dhaka with excellent rooms, well-behaved and responsive staff, variety of foods and others. You can pay visit over there.</t>
+  </si>
+  <si>
+    <t>BeeGoldsmith</t>
+  </si>
+  <si>
+    <t>The Ascott Residence was a great place to hold a training course for a week - in a quiet location in Dhaka with excellent facilities. The staff could not have been more helpful with Mr Bashar going to all lengths to ensure we had everything we needed and our week was a great success. Highly recommend.</t>
+  </si>
+  <si>
+    <t>Compass769574</t>
+  </si>
+  <si>
+    <t>Stayed in this hotel for two nights. I really liked its attentive service, fantastic food (both restaurant on the ground floor and Chill and Grill BBQ  terrace) and location of this hotel. I will definitely recommend this amazing place if you want to visit Dhaka!</t>
+  </si>
+  <si>
+    <t>Jet57378851475</t>
+  </si>
+  <si>
+    <t>Thangks for your hospitality, especially for the ebullient Sonia, the artistic coffee treats from Ashish, and warm-hearted Tuhin. I remember your genuine smiles and your kindness. I enjoy the tranquility here.</t>
+  </si>
+  <si>
+    <t>ellebee69</t>
+  </si>
+  <si>
+    <t>Stayed here for few days . Very attentive service. Daily newspapers,slippers, complimentary fruit, airport shuttle, the restaurant staff remembering how we liked our coffee without asking the folllowing day. All the hallmarks of a very good hotel that looks after its clientele.  What I particularly liked was the fact that as a woman I felt safe spending here the final night alone without any concerns at all.</t>
+  </si>
+  <si>
+    <t>Khadar A</t>
+  </si>
+  <si>
+    <t>I have stayed 4 nights in this hotel. Everybody was so amazing and the staff is very lovely. Everything is very standard! Jasim and Sayed in the restaurant were really great people and served beyond my expectations. The food was amazing and delicious and I enjoyed it. The hotel location is really good and everything is in reasonable distance. I recommend this amazing place if you want to visit Dhaka!</t>
+  </si>
+  <si>
+    <t>Saruwatari K</t>
+  </si>
+  <si>
+    <t>I have stayed at Ascott the Residence more than several time.  I feel very safe and comfortable. Food is good with nice variety.  I wish the gym on the rooftop has better equipment and more room with open view.</t>
+  </si>
+  <si>
+    <t>bhavikpradipm</t>
+  </si>
+  <si>
+    <t>Very nice experience &amp; stay at this hotel, which makes you feel comfortable, secure &amp; gives you a taste of Bangladesh hospitality...I really liked the fact that they care about small details such as a fruit platter in room on arrival &amp; one small snickers bar after clean up is kept in the room...Really very nice business hotel which is very secure and provides excellent service.</t>
+  </si>
+  <si>
+    <t>Simon W</t>
+  </si>
+  <si>
+    <t>we stayed here for a week and were very impressed with the extremely diligent service and the kindness and friendliness of all the staff. The rooms are very comfortable and clean and we appreciated the little touches such as mosquito spraying the room, the chocolates and the newspapers. The breakfast offer is very diverse and caters for all types.  Bashar and Sonia deserve special praise for their hospitality and excellent service and always with a smile. Jacim also deserves a mention for his all-round attentiveness and care.  Mohammed Ali in the Chill and Grill restaurant provides good service.</t>
+  </si>
+  <si>
+    <t>LightPacker828669</t>
+  </si>
+  <si>
+    <t>We often stay this hotel. and bring drink our self. Staff prepare Ice cube a lot at 1st Floor restaurant. Ms Farzana staff is very kind!!  Shuttle bus service have every hour morning time. They pick up and send airport.</t>
+  </si>
+  <si>
+    <t>I stayed here for 2 weeks for work.  Friendly staff, good service. On our last night, we had dinner at roof top restaurant.  Great service was provided by Mr. Mohammad Ali, senior supervisor. The sirloin steak was cooked to perfection by Chef Tania.  I would recommend the restaurant.</t>
+  </si>
+  <si>
+    <t>surpluslabor</t>
+  </si>
+  <si>
+    <t>This was my first stay at Ascott the Residence, and it was great! The room was average with a very firm (not soft) mattress, but kept spotlessly clean by the thoughtful housekeeping staff, who left me complimentary fruit, lined up my shoes, and even left me a Snickers bar at the nightly turn-down service (I think the evening staff member's name was Masmud, but I didn't meet the daytime staff). I had several meals in the restaurant, which I was glad to see has many vegetarian options, and the breakfast was great. But the best part of the restaurant is its staff, especially Jasim and Sarya, who remembered my name and my drink preferences -- they were fantastic and warm. The hotel staff overall were very helpful and concerned to make sure I had a good visit to Dhaka. I'll be backâ€¦</t>
+  </si>
+  <si>
+    <t>Van_Gogh1234</t>
+  </si>
+  <si>
+    <t>Stayed twice in this hotel over one week period. Room number 608 and another 5XX (forgot the number)  The first time, I was upgraded to the luxury /family room which was rather spacious. The decor and design was a bit old fashioned with slight unpleasant but tolerable smell. The smaller room which i stayed the second time was better . Wifi connection throughout the stay was horrible (inside my room). Constantly drop connection after 20 - 30 minutes.  However, I would applaud the staff there for creating a memorable experience for us. Specifically Delwar and Jasim of the F&amp;B Service. Delwar was quite chatty and attentive. They even gave us a surprise birthday celebration to my friend. Kudos to the staff of Asccott The Residence.</t>
+  </si>
+  <si>
+    <t>Masaharu I</t>
+  </si>
+  <si>
+    <t>All the staff of Managers, Reservation Officers, Receptionists, Bell Staff, Security Guards, Waiters/Waitresses and Chefs (men and a lady) of the restaurants on the ground and top floors, Room Services, Fitness Club Receptionists, Technicians, and Drivers are well educated for hospitality of guests. I stayed more than 100 days in total in the last 2 years on business and everytime I feel happy to stay with the staff. Off course, I wiil be back!!</t>
+  </si>
+  <si>
+    <t>regm889</t>
+  </si>
+  <si>
+    <t>Reasonable accommodation near deplomatic area, with security, breakfast was ok but much scope to improve options and varieties for vegetarians. Dinner also OK, no public transport or other options not available.</t>
+  </si>
+  <si>
+    <t>Quest816486</t>
+  </si>
+  <si>
+    <t>It was a pleasure to stay here. Excellent service from arrival to departure.  Staff is very professional, friendly and helpful. Rooms are very clean with all amenities you may need. The bed was ,,King-size'' and very comfortable for sleep.   WiFi works average speed.  The hotel restaurant had a small buffet breakfast, also provided a continental breakfast for the early departure. The restaurant's staff was so helpful &amp; nice attitude,  They offered food &amp; taking care like brotherhood.  Specially "Mr. jamal" thank you so much for your excellent smiling service. There is no swimming pool but so nice rooftop. It is ideal hotel after a long flight. I had a massage before departure. It was also good and reasonably priced.   The hotel is located in a very  safe &amp; secure place.  I wouldâ€¦</t>
+  </si>
+  <si>
+    <t>MolayMaitra</t>
+  </si>
+  <si>
+    <t>This is my 3rd Dhaka visit with same Hotel and always staying here for almost 7-8 days.  â€˜Ascott the residenceâ€™ covers all the basic needs for the guests mostly business traveller and foreigner. Rooms are very clean, comfortable. The best part of this hotel is warm &amp; friendly english speaking staffs.  House keeping teams are really excellent and always stands with support towards your needs. Foods are superb and you may feel extra superb because of charming energetic F&amp;B Team members. They always at your side with their best quality foods. All members of F&amp;B team including their managers access your requirements and serve you the best. One of their team member namely â€˜Ashisâ€™ is simply superb personality, energetic and sound knowledge about culture, places, foods of Bangladeshâ€¦</t>
+  </si>
+  <si>
+    <t>Hisaya S</t>
+  </si>
+  <si>
+    <t>Ascott the Residence is the older of the two this group operates in this neighborhood, I was told.  I used to stay at the other property, Ascott Palace, and this was the first time at the Residence.  Compared to Palace, the lobby at the Residence is smaller and the restaurant darker.  They are both functional, but could use a new decor.  Very steep ramps at the entrance and between the lobby and the elevator level should be improved for better safety to those who are less strong (or tired from long flights).  The room is spacious, the bed is hard and comfortable.  Large work desktop is good and the power outlets are in the right place.  I had a problem with the A/C.  Probably an ancient unit, it was very loud, and cannot be turned low on wind speed.  Well, it goes into "low" butâ€¦</t>
+  </si>
+  <si>
+    <t>Aershad K</t>
+  </si>
+  <si>
+    <t>Though its premises is not so big but its hospitality is so nice and very secured for its location. All the staffs are well mannered and hotel is well furnished with neat and clean. Rooftop is green with bbq facilities. After all that we love it.</t>
+  </si>
+  <si>
+    <t>Ricardo</t>
+  </si>
+  <si>
+    <t>I stayed there for 5 days for a workshop that took plce in the same venue. Both my stay and the workhop were simply excellent! I would gladly return to this amazing hotel. My highlight: All the staff is incredible, polite and always willing to help!</t>
+  </si>
+  <si>
+    <t>SangitaDas</t>
+  </si>
+  <si>
+    <t>Ascott covers all the basics as a hotel whose guests are mostly business travelers from outside the country. Rooms are nice and comfortable, decently clean, and very good complimentary breakfast. The best part of Ascott is its warm and friendly staff. Everyone speaks English, always ready to help, and always makes me feel at home. The Wifi connection is a bit weak in the rooms. Other than that, I always enjoy the famous Bangladeshi hospitality I receive every time I stay at Ascott.</t>
+  </si>
+  <si>
+    <t>NatEbe2</t>
+  </si>
+  <si>
+    <t>Very good hotel with excellent service and very friendly staff. Hotel restaurant has very good food with 24hr service, and the breakfast is excellent. Rooms are very clean, although the view from my room was to another building under construction. The Spa and Fitness centre is small and dark, but the treatments are very good and excellent value for money. The location of the hotel is near the airport and in a very secure area, although a bit far away from shopping centers. Internet/ Wifi is free and of very high quality. Overall, a very enjoyable stay.</t>
+  </si>
+  <si>
+    <t>ç§€æ˜Ž å¤œ</t>
+  </si>
+  <si>
+    <t>The accommodation rate of Dhaka city is higher than that of other countries. This hotel is cost performance good. Also, this hotel is not big, but it is well-balanced room that clean and wide.  I am always relaxed thanks to the helpful and friendly staff.</t>
+  </si>
+  <si>
+    <t>Enzo S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In down town and safety location. Room very comfortable and good cleaning service. Restaurant on rooftop is a b&amp;b  managed by Mr Basher (very professional person!). breakfast full of options for every customer..including italians! </t>
+  </si>
+  <si>
+    <t>michael682017</t>
+  </si>
+  <si>
+    <t>The hotel is doing its best to keep the guests as comfortable as possible during their stay. Friendly and helpful as it should be. Good breakfast and evening options available. I will return when I am back in Dhaka.  PS: I have a feeling they upgraded their internet?</t>
+  </si>
+  <si>
+    <t>KEIKO M</t>
+  </si>
+  <si>
+    <t>I enjoyed my stay at ascott. Mosahid helped me to change my room,enjoyed kind welcome every morning at the dining room.thank you for your smile,Ashishi.all the staff are very nice.thank you all and see you again</t>
+  </si>
+  <si>
+    <t>SallySeattle</t>
+  </si>
+  <si>
+    <t>Stayed at the hotel for first and last parts of a trip to Bangladesh.  Well appointed, gracious staff, comfortable, in a quiet part of the city.  Airport pick up and drop off service much appreciated.  Nice to have a small work out facility.  My favorite part however, was breakfast.  Delicious expresso graciously made each morning by Sonia and Basher, fresh yogurt and fruit.</t>
+  </si>
+  <si>
+    <t>Amar Jyoti N</t>
+  </si>
+  <si>
+    <t>Excellent guest Relation. Thanks to Mosahid for taking care of me so well. He attended to all my requests with diligence. Had a memorable stay. Food was good. Room service was excellent Excellent internet facility.</t>
+  </si>
+  <si>
+    <t>rgg2015</t>
+  </si>
+  <si>
+    <t>It is a small place with good service.The rooms are very big.You don't feel suffocated .Instructions for using everything are very clearly mentioned.It is very near to Gulshan where all the shopping area and restaurants are located.</t>
+  </si>
+  <si>
+    <t>fathsidhanamohd</t>
+  </si>
+  <si>
+    <t>Though one of the reviewers is right in the sense that the property is a bit old, it is well kept and maintained, and the service staff are very professional and courteous. Every level of assistance was provided to make our stay more comfortable. The food served at the in-dining facility was delicious. I loved it. The area is a quiet neighborhood, well guarded as most embassies are located in the area, and is clean and green. Even though I never did get the opportunity to walk around the area during my too short stay, I would recommend a walk in the park just a few meters away just for the quaint scenery it provides. I would have loved to myself.  The toilets could use a bit more scrubbing though they were well cleaned. In short, loved the stay, and I would recommend the placeâ€¦</t>
+  </si>
+  <si>
+    <t>Alessandro A</t>
+  </si>
+  <si>
+    <t>Perfect location, safe area (although quite boring), excellent service. Staff are very nice and food at the restaurant is very good. The gym could be improved. Excellent value for money BUT: let's not forget that salaries in Bangladesh are VERY low...</t>
+  </si>
+  <si>
+    <t>Abarao</t>
+  </si>
+  <si>
+    <t>I stayed here for two weeks and highly recommend the hotel and its staff.  It is located in the quiet and heavily secured diplomatic zone of Baridhara, not far from the airport.  My room was large and comfortably furnished, and (important as I was on business) had  a desk, good lighting and wifi. In addition to the generous free breakfast offered, the hotel has a gym and in-house security detail.  But for me, the stand-out appeal of this hotel was the welcoming and attentive service provide by all staff - security, entry, reception, restaurant and housekeeping.   I'd definitely stay here again if I return to Dhaka!</t>
+  </si>
+  <si>
+    <t>Arun Prakash Ray</t>
+  </si>
+  <si>
+    <t>Stayed for a week, the property is a crammed service apartment like hotel, smelling of pesticides and old carpet. Rooms need a facelift desperately. Conveniently located in the diplomatic enclave of Gulshan in Dhaka. Had ordered Daal, Fish ðŸŸ curry ðŸ› with rice. The kitchen never got it right in five nights. Had a misadventure with the Thai food on one occasion as well. Staff is overworked but still cheerful. That got them the second star.</t>
+  </si>
+  <si>
+    <t>umetomo</t>
+  </si>
+  <si>
+    <t>Because this hotel is located in Baridhara diplomatic area, it is quite calm and safe compared to any other areas. Pick-up and sending service is very helpful. All staff is very kind. The hotel has a great selection of breakfast. Of course, the breakfast is delicious.</t>
+  </si>
+  <si>
+    <t>Delwar H</t>
+  </si>
+  <si>
+    <t>Excellent hotel to stay. Its located at Baridhara. You may avoid heavy traffic of Dhaka if you have work on diplomatic zone. Very quite. Transportation is not that available. Hotel has its own transportation. Food is average.</t>
+  </si>
+  <si>
+    <t>simonagrintina92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I stayed at this hotel twice during my visits at Bangladesh and although it is in a good a safe area and the staff were really friendly and accommodating I didn't really feel it's matched to mark. Each time we stayed my colleague and I both had to change rooms for reason or another and the hotel is very noisy!  And no wine! So if you want an alcoholic beverage  in the evening then do your research as it's hard to find in Bangladesh. </t>
+  </si>
+  <si>
+    <t>Antoni Eko</t>
+  </si>
+  <si>
+    <t>Hotel's staff are very attentive to your needs and polite although communication sometimes an issue when ordering food. The room is small but clean. The hotel itself is a small hotel. My room's windows lookout into a wall of another building, no swimming pool. Complimentary transport to/from airport was very helpful. Traffic to the hotel is very busy at this time of the year. There is 24hrs room service but with limited menu list. Breakfast was okay. The hotel is good for short stay.</t>
+  </si>
+  <si>
+    <t>fleurbean</t>
+  </si>
+  <si>
+    <t>I spent a couple of nights in this hotel due to the safety and its location. I was picked up by the complimentary pick up service in the Dhaka airport and was taken to the airport without any problems. Upon arrival, I was checked in at the counter and there were no issues. The front desk staff was courteous. They had a short and brief introduction of the amenities of the hotel and told me of the hours of the breakfast buffet.   The first room I received was a bit dim and and sheets were a little bit smelly (like moldy smell). Other than that, the room was clean and there was abundant hot water for the shower. Bottled waters and an invitation fruit plate were found on the desk.  The complimentary WIFI can be a bit spotty. I had trouble connecting and once connected, if you wereâ€¦</t>
+  </si>
+  <si>
+    <t>The hotel is located in close proximity to  diplomatic offices in a well-guarded, secure and quiet neighborhood.  My room was large with adequate space for the twin beds, desk, lounge chairs and television.  The room was reasonably clean and well lit (although some of the light bulbs were faulty). The restaurant provides above average choice and quality of food to suit different cultures.  There is also an on-site gym.  The reception, house-keeping and restaurant staff could not have been more attentive and helpful and on check-out the hotel waived the charges for my airport shuttle (both ways) which similarly was punctual and easy to use. There is free and fast wifi in the rooms. My only complaint was that the bed was very hard and uncomfortable and the aircon quite noisy.  Iâ€¦</t>
+  </si>
+  <si>
+    <t>Prab_Barooah</t>
+  </si>
+  <si>
+    <t>The hotel is tucked away in a quiet and guarded residential area which is mostly for expats. It offers all the amenities which you would expect in a good hotel and an exceptional roof top restaurant which specialises in grills and barbecues.  The staff is extremely helpful and considerate. The gym is reasonably equipped as well.  They schedule free airport pick ups and drops and have a shuttle service that runs at regular intervals.</t>
+  </si>
+  <si>
+    <t>Afsanul Tanveer</t>
+  </si>
+  <si>
+    <t>I stayed there several times. The stuffs are professional and friendly. The rooms are spacious and clean. The bathroom is also up to the task. Never used their pool. So can't say anything about that. Overall its a good hotel to stay.</t>
+  </si>
+  <si>
+    <t>mithuuu</t>
+  </si>
+  <si>
+    <t>The service is very good at the hotel. Its also very neat and clean. The foods are also very delicious there. The place is also well maintained. The room decoration is also very nice in that area. please don't take a room near the lift as it may disturb you with the noise.</t>
+  </si>
+  <si>
+    <t>Ariba T</t>
+  </si>
+  <si>
+    <t>Stayed here for 5 days on Business Travel. Hotel is difficult to locate. The approach is not visable at all. The amenities and the room condition is not up to the mark. The plug points were not functional and room was not hygenic</t>
+  </si>
+  <si>
+    <t>The restaurant is good with delicious food. Location is also good, it is situated in diplomatic zone  called Baridhara of Dhaka. It is situated in a very convenient place though public transport is hard to hail.</t>
+  </si>
+  <si>
+    <t>JayantaBose</t>
+  </si>
+  <si>
+    <t>This hotel is situated in high security area of Baridhara diplomatic compound. This area houses many high commissions and house of high commissioners. As a result area is but secluded. Hotel is very good. A very modern business hotel with all standard amenities.</t>
+  </si>
+  <si>
+    <t>pandeyravi</t>
+  </si>
+  <si>
+    <t>The rooms and service are good. The staff are polite and courteous.  I wouldn't rate the location highly as it is in the middle of a residential area and there are no commercial establishments/ other restaurants within walking distance and any other transport (except bikes) could mean 20-60 minutes in Dhaka traffic. They did not offer a complimentary  airport pickup though a previous traveller claims to have received it. Did not like the breakfast here at all.  The gym is a small crowded room with old equipment  (the treadmill seemed it could break any moment)</t>
+  </si>
+  <si>
+    <t>Yadhav Mehra</t>
+  </si>
+  <si>
+    <t>Conducted a training workshop on 5th floor of the hotel. The training room is very basic but the greenery on the terrace outside the training room is very pleasant and makes for very good break away space. Worth mentioning is the excellent service provided by the Restaurant Manager Alam and his team. Alam is extremely enthusiastic,  energetic, proactive  and positive energy person.  I am a vegetarian and enjoyed the non spicy vegetarian dishes they served on special request.</t>
+  </si>
+  <si>
+    <t>Rajeev K</t>
+  </si>
+  <si>
+    <t>I checked into the hotel for a one night stay. They offered complimentary airport pick up and drop. Very impressed by the boutique hotel. I have been a frequent visitor to Dhaka and trying to get a good hotel. My search ended once I stayed here. They have another hotel Ascott Palace. The manager took me to that as well and I am impressed by the quality of their interiors. I am sure to be back in the hotel next time I am in Dhaka.</t>
+  </si>
+  <si>
+    <t>RSM1111</t>
+  </si>
+  <si>
+    <t>Location is nice as it is close to Airport and being in diplomatic area, place is quiet and clean. However every location of my client's place though was within range of 9 Kms but it took lot of time to reach due to heavy traffic which doesn't move. Private taxi taken from hotel is very costly. Internet connectivity was good and so was staff very hospitable. Overall experience was good.</t>
+  </si>
+  <si>
+    <t>Stefano</t>
+  </si>
+  <si>
+    <t>Nearby the airport (15-20 minutes depending of the traffic jam) the Ascott hotel has all the faculty that you need for a short stay, except the pool. Small restaurant and a small SPA but very comfortable. Rooms are new, clean and enough large.</t>
+  </si>
+  <si>
+    <t>MWorldwide</t>
+  </si>
+  <si>
+    <t>Pro,   very friendly staff and area.  Contra  totally overpriced rooms, Smelly room, very smelly corridor, room for sure NOT 40m2, old interior, old design, old shower curtain, very small windows, no nice view out of window, all dark design, rip off,  gym NOT state of the art as promised in the internet! broken edges, Jacuzzi not working, see the photo LOL,   I not recommend and will not stay again. Apologies for the very friendly staff but what you get is one of the worst rip offs in history. I do not expect 5 stars rooms, The price of 200USD/ Night are a joke, at least the everything should be well maintained. And it was not...</t>
+  </si>
+  <si>
+    <t>Mrcrawfish</t>
+  </si>
+  <si>
+    <t>A quaint but very hospitable hotel where the staff treat you like family. If it weren't for the weak internet link for one day, I would have given it an excellent. The staff were very helpful and even gave me additional coffee and fruits.</t>
+  </si>
+  <si>
+    <t>Barry P</t>
+  </si>
+  <si>
+    <t>This is a very good hotel with an excellent location in Road 8 Baridhara, close to Gulshan 2 and close to many embassies and the Gulshan/Banani business districts. The service is excellent, rooms very good and nice meals available from breakfast to dinner. There is a smallish conference centre and a pleasant roof top dinner area next to the spa and fitness centre which are both very good. My only concern with the Ascott is the price, getting just a little expensive compared to some of the more affordable options available in the same district. But it does still represent very good value for money and I'd have no hesitation in recommending it to anyone on a medium size budget. The spa is also getting expensive so I now look for other alternatives close by.</t>
+  </si>
+  <si>
+    <t>Paul B</t>
+  </si>
+  <si>
+    <t>I was on a business trip to Dhaka and decided after reading some reviews to book into the Ascott. The rooms are spacious and clean, with ample closet space for all my shirts and trousers. The staff are very friendly and can not do enough to help make my stay enjoyable.  The is a free collection and drop off available which saves on haggling over taxi cost. The food is well prepared and having paid for breakfast not limited to the selection provided (not keen on curry and noodles first thing)!  All in all a very enjoyable stay and quite prepared to go back on my next trip.  With a short taxi ride or paying for the in house transport, there is attractions local would not suggest walking at night as poorly lit and the roads/paths are a in a state of dis-repair.</t>
+  </si>
+  <si>
+    <t>peggykhoo20</t>
+  </si>
+  <si>
+    <t>This is my first time travel to Dhaka with my 2 colleagues for business and stay for 5 days. The staffs are very friendly and polite. The hotel is clean and the food is quite good. The customer care- Joan is very friendly and helpful, always lend help and advise us about places to visit, etc. This place is quiet, just the construction next the hotel is on going somehow disturber, anyways, still acceptable as you will not staying in the hotel all the time. Hopefully we will be staying at the same hotel for the next visit. Hope to see you again Joan, peggy, mee and lily will miss you! :)</t>
+  </si>
+  <si>
+    <t>Cam F</t>
+  </si>
+  <si>
+    <t>I frequently come to Dhaka for business and stay for a month at a time. I find the Ascott Residence staff always eager to please and the hotel is kept very clean. The rooms have everything that you might need for a long or short stay. I have found the food to be quite excellent but after trying everything and staying for long periods, the odd change is always welcome. Joanna, who works in marketing, has many great suggestions for outside restaurant experiences. She takes extra care to insure that every customer is as happy as they can be, when away from home. The hotel is located in the diplomat district so safety never feels like a concern. Over all I'm quite happy and plan to say at the Ascott for my next visit.</t>
+  </si>
+  <si>
+    <t>Mohammad Q</t>
+  </si>
+  <si>
+    <t>This is the second time as a school We stay at Ascott Residence and it was awesome we realy enjoyed are stay at Ascott. Your Staff was very professional and very supportive. only the TV channels needs to be more internationals then local or Indian. Hope to see you guys again.  Thanks Qadeer</t>
+  </si>
+  <si>
+    <t>Sunil V</t>
+  </si>
+  <si>
+    <t>Staff is very cooperative... rooms are neatly maintained...If you are an Indian then even they arrange veg stuff you require...from the restaurant Purnima, Sonia, Faruque well mannered, they take care of you on personal level... secured place and located in calm and quite area...Gulshan commercial area ...is very close by... You get all sort of help...from the staff...no problems in short.. The only point price wise its bit costlier ,</t>
+  </si>
+  <si>
+    <t>Vivzkie</t>
+  </si>
+  <si>
+    <t>I was here for 21 days Business Trip and our client booked our accommodation at Ascott, which has a very good location, a walking distance to my workplace and it is located in Diplomatic Zone area so it's safe, the staff are very polite, courteous and friendly. Joanna who is their Customer Relations Officer is also very friendly and she make sure that all guests are comfortable. She is a very nice lady. A little suggestion, the breakfast menu is always the same, imagine for 21 days I stayed at the hotel, it's the same food everyday.. put a bit of variation and maybe every week change the menu :).</t>
+  </si>
+  <si>
+    <t>kareem21</t>
+  </si>
+  <si>
+    <t>This is no way a 4 star hotel. I don't know how this hotel has been given 4 star. I changed 3 rooms. First room it was stinking, second room the aircon was making too much noise hence they shifted my room at 4 am in the morning. Very bad experience.</t>
+  </si>
+  <si>
+    <t>denisenah</t>
+  </si>
+  <si>
+    <t>Stayed here for one night on business. The Ascott is an international serviced residence brand from Singapore and they are branded mid-high range. Therefore, I certainly was not expecting the very basic set-up of the room. Clean and well-kept, but very basic.   The room layout is what you would expect of a serviced apartment, with a small dry kitchen, living room, bedroom and bathroom. I was on the 2nd floor so the sound of traffic and people walking about went on quite late into the night.   The bed was also hard and the bedsheets were basic. Safe to say, I did not have the best sleep.   I did not have time to eat breakfast at the hotel.   Everybody in Bangladesh is very friendly and helpful so it was nice to know that the hotel kept to this standard.</t>
+  </si>
+  <si>
+    <t>I-benget</t>
+  </si>
+  <si>
+    <t>Overall, I can say that my stay was quite good, a bit better than when I stayed in the same hotel 2 years ago.  It has all the basic amenities and services and it is very near my workplace.  If there's one thing that I liked the best, it's the shower because the water is strong and the temp is easy to control.  The staff are also generally courteous, warm, and helpful.  The breakfast and menu can be improved though.  The selection is quite limited and if you have stayed for almost 2 weeks, you will surely get tired of the food.  There are times that some staff at the restaurant have the tendency to be a bit selective when serving people of different nationalities and tend to favor one over the other.   There are no other restaurants near the hotel so if you're craving for otherâ€¦</t>
+  </si>
+  <si>
+    <t>Helena Craig</t>
+  </si>
+  <si>
+    <t>I stayed here with my whole family for three nights when we could not get into our usual hotel in Gulshan.  The hotel looks fine from the outside, but inside has a upmarket feeling lobby.  I was staying with my husband and 11 year old daughter and had a 1 bedroom suite.  The bedroom had two double beds and was very big and beautifully decorated.  We also had a a sizable living room and kitchen area, making it easy to make tea for the whole group.  The other twin rooms were all decorated to the same high standard but were slightly smaller.  The bedding ll looked and felt luxurious made the rooms look good and the beds were very comfortable.  The walls were pretty think and so we had to try and talk quietly to avoid being heard outside.  The rooms were very quiet with no noiseâ€¦</t>
+  </si>
+  <si>
+    <t>Shashank Kaushik</t>
+  </si>
+  <si>
+    <t>I stayed at The Ascott last month while returning back from an official trip. I was pleasantly surprised as soon as I entered the hotel because from the outside it looks quite a small place but it' very well equipped like any other big hotel. The rooms were extremely spacious &amp; comfortable enough. There is complimentary Wi-Fi(which was a bit problematic during my stay), TV with DTH facilities, Fruit baskets &amp; other basic necessities. Shower was well equipped &amp; good enough. In case you smoke, you'd have to ask for the smoking rooms. The staff is very helpful &amp; very polite.  Extra browny points for the amazing morning breakfast spread. Food at both the restraunts was amazing. Highly Recommended over other high priced options in the Baridhara area.</t>
+  </si>
+  <si>
+    <t>Ken C</t>
+  </si>
+  <si>
+    <t>The hotel is quiet and clean and cost represnets value for money.  I had basic bedroom which was a reaonalbe size with an armchair to watch TV.  The bed was OK but rather hard.  Shower excellent.  If you don't like smoke go for roons starting with a 5 in the number which is a bit confusing as they are on the 4th floor.  Food is OK and again not expensive for a hotel.  Coffee could be better and no alcohol served but you can bring take in..</t>
+  </si>
+  <si>
+    <t>JeremyChew</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's a small hotel but it do have almost everything similar to any bigger hotel. But do take note there is some renovations taking place behind the hotel so it could be noisy. My room was upgraded to the royal suite which is extremely spacious with a kitchen area. Though I have not much use as its a business trip. The hotel restaurant give me a local canned drink but charged me a imported can drink price which is like 3 bucks sgd. Which i think should not happen. </t>
+  </si>
+  <si>
+    <t>Naximov</t>
+  </si>
+  <si>
+    <t>We stayed there in September, attending a friends wedding in Dhaka. The hotel is located in an upmarket district of Dhaka, very quiet, green and close to the airport. It is very well decorated and all staff speak good English. Excellent rooms, good facilities and overall we had a very pleasant time there. Recommended!</t>
+  </si>
+  <si>
+    <t>Sathiyamoorthi N</t>
+  </si>
+  <si>
+    <t>I stayed in a deluxe room.Rooms are very clean and  also shower had a excelent water fall.The hotel is in diplomatic zone which means extra safety.The food was ok  but improve the room serve still better.very noisy sorroundings due to some breakage of near by buildings.</t>
+  </si>
+  <si>
+    <t>Manc2409</t>
+  </si>
+  <si>
+    <t>Having stayed on a number of occasions and found everything ok, staff very welcoming,rooms are clean, and well maintained. A problem with the restaurant in that my order took over 40 mins to arrive having ordered a basic shaslik and chips ?</t>
+  </si>
+  <si>
+    <t>JGP1216</t>
+  </si>
+  <si>
+    <t>My 2nd stay here. The Ascott is very near theNGO I work for. Rooms are no frills, clean. Bed is okay. Food is average. Competent and friendly front desk staff. The hotel is in the diplomatic zone which means there are no commercial facilities close by. Traffic in Dhaka is bad and it can take 30 minutes to get somewhere a mile away by car. There's a rooftop restaurant and a small gym on te premises.</t>
+  </si>
+  <si>
+    <t>BH184</t>
+  </si>
+  <si>
+    <t>Room  - very clean with all the amenities you need.  I stayed in a deluxe room, which is not the best but not the worst  - shower had excellent water flow and hot/cold was easily adjusted to suit preference  - many outlets to charge devices and free wi-fi; recommend bringing multiple adaptors  - bed had very hard mattress, but sheets were good quality, soft and comfortable  - windows were not sealed tightly and therefore not sound proof which allowed construction noise to come through room; beware, construction couninues all night  - LCD flat screen TV with over 90 channels, many of which were English speaking or subtitled  - very good adjustable air conditioning, actually had to turn it down  Service  - Excellent  - staff were very friendly and accomodating  - hotel kept veryâ€¦</t>
+  </si>
+  <si>
+    <t>marenostrumkk</t>
+  </si>
+  <si>
+    <t>small hotel with great service! I felt like beeing home. the personnel is very helpful and friendly. Food can be customized since I'm not fan of spicy food that is served in this part of the world but they made it no spicy for me without any problems. Hotel is placed in good neighborhood without crime and big noise of the traffic.   Overall, very good and more than expected.</t>
+  </si>
+  <si>
+    <t>Stayed over on route home, the hotel is in a safe area of the embassies. On arrival the staff were very friendly and efficient, my booking was dealt with quickly on arrival in my room found it very clean with coffee facilities and a good shower after 6 hours on the road traveling this was a good start.</t>
+  </si>
+  <si>
+    <t>Mohammed H K</t>
+  </si>
+  <si>
+    <t>The facilities include free pickup from and drop to  the airport, which is not too far from the hotel. The interior of the hotel is nice and it is located at a residential area where no shops are available nearby. No shop, not even a  barber shop, is inside the hotel. The staff members are well-behaved and co-operative. But despite all, compared to the price, which is nearly US $ 200 for  a room per night including VAT and service charges, the accommodation is not, in my judgment, worth the money at all.</t>
+  </si>
+  <si>
+    <t>sjc2013</t>
+  </si>
+  <si>
+    <t>In the quiet (and safe) heart of Baridhara. I had a suite for a lengthy stay and found the room spacious although the bed was quite hard. The staff were pleasent and helpful. The breakfast was more than adequate adequate.</t>
+  </si>
+  <si>
+    <t>ShownWee</t>
+  </si>
+  <si>
+    <t>The reason I rate it poor because personally feel the hotel does not have 4 star feel.  Personally counter several unhappy situation, however fixed by hotel's management. I felt I had paid to learn the lesson.   Pro: - Ascott the residence won two awards from other country, which I donâ€™t know what award is that but it sound great! - Room Equip with LCD TV with more than 90 tv channel. - Provided 500ml water each day from room cleaner.  - Free news paper for each day. - Fix complain before next COB day.  - Free shuttle to/from Dhaka airport.  - Alot of power socket point.  -       Mini Fridge is available  -       Independent air cond unit.(Which you can adjust your own preference temperature)  Cons: - Terrible internet speed. Difficulty with skype call during peak hour. - Donâ€™tâ€¦</t>
+  </si>
+  <si>
+    <t>SEB1967</t>
+  </si>
+  <si>
+    <t>Certainly not a hotel to stay at if you are an anti-smoker, the roomsâ€™ smell strongly of stale cigarette smoke, not pleasant. Bedroom comfortable but bathroom facilities not good. I was very disappointed by breakfast, I have been travelling a lot in recent months for work, and this is the first hotel I can think of where breakfast was lacking - poor choice of food and what was on display was not great. I didnâ€™t eat in the restaurant for dinner but had room service on my last night, food very mediocre, fries inedible.  The plus side? Lovely staff, reception clean and pleasant and most importantly I felt very safe, but definitely not my choice of hotel.</t>
+  </si>
+  <si>
+    <t>Alexandre N</t>
+  </si>
+  <si>
+    <t>The stay is ok, Bfast is ok. Airport Shuttle is provided FOC The only downside, on the last day, when about to check out, they charge me for room for which I already paid via website. i've been premier member of that website, and I explain everything already paid. The staff told me, I maybe paid the website, but the website havent pay to the hotel...  It took 6 staff including the manager, to check and 30 minutes waiting. Finally they told me, everything is ok....</t>
+  </si>
+  <si>
+    <t>CocoSoul</t>
+  </si>
+  <si>
+    <t>If you have no other options and if you have business in the Bardhara district, then this is a good place to stay.  I stayed here for three weeks.  For the first week, I stay in a Royal Suite on the 5th floor.  For the last two weeks, I stayed in a Premium Room.  Both were fine -- clean and well-sprayed to ward off mosquitoes.  I would have preferred the suite for such a long stay if it weren't so dark.  It faced other buildings so the view was terrible, but it was quieter.  The Premium Room was actually quite nice.  It faced the street and, even though I heard street noise, the daylight and sunrise were lovely.  The dilemma was the mosque was only half a block away.  Prayer calls at 5am were surprising at first, but then you get used to it (like all other things about Dhaka). â€¦</t>
+  </si>
+  <si>
+    <t>R0am_it</t>
+  </si>
+  <si>
+    <t>Found the hotel lacking in many aspects...  1. The rooms were of ok size but had mosquites 2. The bathrooms were a little low on lighting  3. Hot water took ages once the shower was turned on 4. The mosquito spray led to dead roaches turning up in the room! 5. the breakfast was pretty limited in its offering  The best part of the hotel was the rooftop BBQ.. which served good quality food though a tad expensive!</t>
+  </si>
+  <si>
+    <t>Dharm_R</t>
+  </si>
+  <si>
+    <t>If you are willing to have a long stay at Dhaka, Ascott is the right place. The staffs are quite warm &amp; rooms are comfortable. Fooding is always a challange as they have very limited menu. Since it si located in diplomatic zone of Dhaka so outside of environment looks very safe</t>
+  </si>
+  <si>
+    <t>SudipG</t>
+  </si>
+  <si>
+    <t>A very poor quality hotel with claustrophobic rooms and bad toilets. Service was missing and in spite of a high charge, even a mini bar or kitchenette was missing. Food was very costly. The  staff at the reception was non communicative and confused. i was charged for a breakfast which was supposed to be complimentary!!!</t>
+  </si>
+  <si>
+    <t>True residence with almost family atmosphere. Hotel is new and clean. Service is friendly and social.  Diner at night is fine, choice of asian a la carte and buffet. A la carte takes 30/40 minutes to bring first dish. Breakfast is warm asian buffet, lacks some western options.  Despite quite area thin walls and windows allow for some disturbance at night.  For Dhaka area this is a very attractive alternative to Raddisson and Westin, unless you expect not less than 5*.</t>
+  </si>
+  <si>
+    <t>TGrz</t>
+  </si>
+  <si>
+    <t>Ascott the Residence opened in April 2010. There were a good choice of rooms, all well furnished and very clean. Rooms are light, airy and spacious. I stayed in a superior double, the only downside being the AC blew onto the bed. The free internet is wireless. The food in the restaurant was good, although not all items on the menu are available. The staff were pleasant but not really on the ball.  Overall it is a good hotel, I would definately recommend and stay there again with pleasure.</t>
   </si>
 </sst>
 </file>
@@ -3443,7 +5709,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3466,6 +5732,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3782,7 +6054,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB581"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A546" workbookViewId="0"/>
+    <sheetView topLeftCell="A546" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10861,4 +13133,5498 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BB515"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="11"/>
+    <col min="2" max="2" width="37.42578125" customWidth="1"/>
+    <col min="3" max="3" width="123.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:54" s="1" customFormat="1" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="2"/>
+      <c r="AP1" s="2"/>
+      <c r="AQ1" s="2"/>
+      <c r="AR1" s="2"/>
+      <c r="AS1" s="2"/>
+      <c r="AT1" s="2"/>
+      <c r="AU1" s="2"/>
+      <c r="AV1" s="2"/>
+      <c r="AW1" s="2"/>
+      <c r="AX1" s="2"/>
+      <c r="AY1" s="2"/>
+      <c r="AZ1" s="2"/>
+      <c r="BA1" s="3"/>
+      <c r="BB1" s="2"/>
+    </row>
+    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
+        <f>IF(C2&lt;&gt;"",ROW(A1),"")</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <f t="shared" ref="A3:A66" si="0">IF(C3&lt;&gt;"",ROW(A2),"")</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="11">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="11">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="11">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="11">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="11">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="11">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="11">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="11">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="11">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="11">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="11">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="11">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="11">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="11">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="11">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="11">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="11">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="11">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="11">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="11">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="11">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="11">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="11">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="11">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="11">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="11">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="11">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="11">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="11">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="11">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="11">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="11">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="11">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="11">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="11">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="11">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="11">
+        <f t="shared" ref="A67:A130" si="1">IF(C67&lt;&gt;"",ROW(A66),"")</f>
+        <v>66</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="11">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="11">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="11">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="11">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="11">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="11">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="11">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="11">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="11">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="11">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="11">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="11">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="11">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="11">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="11">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="11">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="11">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="11">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="11">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="11">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="11">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="11">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="11">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="11">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="11">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="11">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="11">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="11">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="11">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="11">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="11">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="11">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="11">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="11">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="11">
+        <f t="shared" si="1"/>
+        <v>101</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="11">
+        <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="11">
+        <f t="shared" si="1"/>
+        <v>103</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="11">
+        <f t="shared" si="1"/>
+        <v>104</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="11">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="11">
+        <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="11">
+        <f t="shared" si="1"/>
+        <v>107</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="11">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="11">
+        <f t="shared" si="1"/>
+        <v>109</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="11">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="11">
+        <f t="shared" si="1"/>
+        <v>111</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="11">
+        <f t="shared" si="1"/>
+        <v>112</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="11">
+        <f t="shared" si="1"/>
+        <v>113</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="11">
+        <f t="shared" si="1"/>
+        <v>114</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="11">
+        <f t="shared" si="1"/>
+        <v>115</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="11">
+        <f t="shared" si="1"/>
+        <v>116</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="11">
+        <f t="shared" si="1"/>
+        <v>117</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="11">
+        <f t="shared" si="1"/>
+        <v>118</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="11">
+        <f t="shared" si="1"/>
+        <v>119</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="11">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="11">
+        <f t="shared" si="1"/>
+        <v>121</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="11">
+        <f t="shared" si="1"/>
+        <v>122</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="11">
+        <f t="shared" si="1"/>
+        <v>123</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="11">
+        <f t="shared" si="1"/>
+        <v>124</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="11">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="11">
+        <f t="shared" si="1"/>
+        <v>126</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="11">
+        <f t="shared" si="1"/>
+        <v>127</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="11">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="11">
+        <f t="shared" si="1"/>
+        <v>129</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="11">
+        <f t="shared" ref="A131:A194" si="2">IF(C131&lt;&gt;"",ROW(A130),"")</f>
+        <v>130</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="11">
+        <f t="shared" si="2"/>
+        <v>131</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="11">
+        <f t="shared" si="2"/>
+        <v>132</v>
+      </c>
+      <c r="B133" s="8" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="11">
+        <f t="shared" si="2"/>
+        <v>133</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="11">
+        <f t="shared" si="2"/>
+        <v>134</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="11">
+        <f t="shared" si="2"/>
+        <v>135</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="11">
+        <f t="shared" si="2"/>
+        <v>136</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="11">
+        <f t="shared" si="2"/>
+        <v>137</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="11">
+        <f t="shared" si="2"/>
+        <v>138</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="11">
+        <f t="shared" si="2"/>
+        <v>139</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C140" s="8" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="11">
+        <f t="shared" si="2"/>
+        <v>140</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="11">
+        <f t="shared" si="2"/>
+        <v>141</v>
+      </c>
+      <c r="B142" s="8" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C142" s="8" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="11">
+        <f t="shared" si="2"/>
+        <v>142</v>
+      </c>
+      <c r="B143" s="8" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C143" s="8" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="11">
+        <f t="shared" si="2"/>
+        <v>143</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="11">
+        <f t="shared" si="2"/>
+        <v>144</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="11">
+        <f t="shared" si="2"/>
+        <v>145</v>
+      </c>
+      <c r="B146" s="8" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C146" s="8" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="11">
+        <f t="shared" si="2"/>
+        <v>146</v>
+      </c>
+      <c r="B147" s="8" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C147" s="8" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="11">
+        <f t="shared" si="2"/>
+        <v>147</v>
+      </c>
+      <c r="B148" s="8" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C148" s="8" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="11">
+        <f t="shared" si="2"/>
+        <v>148</v>
+      </c>
+      <c r="B149" s="8" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C149" s="8" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="11">
+        <f t="shared" si="2"/>
+        <v>149</v>
+      </c>
+      <c r="B150" s="8" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C150" s="8" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="11">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+      <c r="B151" s="8" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C151" s="8" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="11">
+        <f t="shared" si="2"/>
+        <v>151</v>
+      </c>
+      <c r="B152" s="8" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C152" s="8" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="11">
+        <f t="shared" si="2"/>
+        <v>152</v>
+      </c>
+      <c r="B153" s="8" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C153" s="8" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="11">
+        <f t="shared" si="2"/>
+        <v>153</v>
+      </c>
+      <c r="B154" s="8" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C154" s="8" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="11">
+        <f t="shared" si="2"/>
+        <v>154</v>
+      </c>
+      <c r="B155" s="8" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C155" s="8" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="11">
+        <f t="shared" si="2"/>
+        <v>155</v>
+      </c>
+      <c r="B156" s="8" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C156" s="8" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="11">
+        <f t="shared" si="2"/>
+        <v>156</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C157" s="8" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="11">
+        <f t="shared" si="2"/>
+        <v>157</v>
+      </c>
+      <c r="B158" s="8" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C158" s="8" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="11">
+        <f t="shared" si="2"/>
+        <v>158</v>
+      </c>
+      <c r="B159" s="8" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C159" s="8" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="11">
+        <f t="shared" si="2"/>
+        <v>159</v>
+      </c>
+      <c r="B160" s="8" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C160" s="8" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="11">
+        <f t="shared" si="2"/>
+        <v>160</v>
+      </c>
+      <c r="B161" s="8" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C161" s="8" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="11">
+        <f t="shared" si="2"/>
+        <v>161</v>
+      </c>
+      <c r="B162" s="8" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C162" s="8" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="11">
+        <f t="shared" si="2"/>
+        <v>162</v>
+      </c>
+      <c r="B163" s="8" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C163" s="8" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="11">
+        <f t="shared" si="2"/>
+        <v>163</v>
+      </c>
+      <c r="B164" s="8" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C164" s="8" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="11">
+        <f t="shared" si="2"/>
+        <v>164</v>
+      </c>
+      <c r="B165" s="8" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C165" s="8" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="11">
+        <f t="shared" si="2"/>
+        <v>165</v>
+      </c>
+      <c r="B166" s="8" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C166" s="8" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="11">
+        <f t="shared" si="2"/>
+        <v>166</v>
+      </c>
+      <c r="B167" s="8" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C167" s="8" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="11">
+        <f t="shared" si="2"/>
+        <v>167</v>
+      </c>
+      <c r="B168" s="8" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C168" s="8" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="11">
+        <f t="shared" si="2"/>
+        <v>168</v>
+      </c>
+      <c r="B169" s="8" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C169" s="8" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="11">
+        <f t="shared" si="2"/>
+        <v>169</v>
+      </c>
+      <c r="B170" s="8" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C170" s="8" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="11">
+        <f t="shared" si="2"/>
+        <v>170</v>
+      </c>
+      <c r="B171" s="8" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C171" s="8" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="11">
+        <f t="shared" si="2"/>
+        <v>171</v>
+      </c>
+      <c r="B172" s="8" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C172" s="8" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="11">
+        <f t="shared" si="2"/>
+        <v>172</v>
+      </c>
+      <c r="B173" s="8" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C173" s="8" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="11">
+        <f t="shared" si="2"/>
+        <v>173</v>
+      </c>
+      <c r="B174" s="8" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C174" s="8" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="11">
+        <f t="shared" si="2"/>
+        <v>174</v>
+      </c>
+      <c r="B175" s="8" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C175" s="8" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="11">
+        <f t="shared" si="2"/>
+        <v>175</v>
+      </c>
+      <c r="B176" s="8" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C176" s="8" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="11">
+        <f t="shared" si="2"/>
+        <v>176</v>
+      </c>
+      <c r="B177" s="8" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C177" s="8" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="11">
+        <f t="shared" si="2"/>
+        <v>177</v>
+      </c>
+      <c r="B178" s="8" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C178" s="8" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="11">
+        <f t="shared" si="2"/>
+        <v>178</v>
+      </c>
+      <c r="B179" s="8" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C179" s="8" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="11">
+        <f t="shared" si="2"/>
+        <v>179</v>
+      </c>
+      <c r="B180" s="8" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C180" s="8" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="11">
+        <f t="shared" si="2"/>
+        <v>180</v>
+      </c>
+      <c r="B181" s="8" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C181" s="8" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="11">
+        <f t="shared" si="2"/>
+        <v>181</v>
+      </c>
+      <c r="B182" s="8" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C182" s="8" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="11">
+        <f t="shared" si="2"/>
+        <v>182</v>
+      </c>
+      <c r="B183" s="8" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C183" s="8" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="11">
+        <f t="shared" si="2"/>
+        <v>183</v>
+      </c>
+      <c r="B184" s="8" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C184" s="8" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="11">
+        <f t="shared" si="2"/>
+        <v>184</v>
+      </c>
+      <c r="B185" s="8" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C185" s="8" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="11">
+        <f t="shared" si="2"/>
+        <v>185</v>
+      </c>
+      <c r="B186" s="8" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C186" s="8" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="11">
+        <f t="shared" si="2"/>
+        <v>186</v>
+      </c>
+      <c r="B187" s="8" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C187" s="8" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="11">
+        <f t="shared" si="2"/>
+        <v>187</v>
+      </c>
+      <c r="B188" s="8" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C188" s="8" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="11">
+        <f t="shared" si="2"/>
+        <v>188</v>
+      </c>
+      <c r="B189" s="8" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C189" s="8" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="11">
+        <f t="shared" si="2"/>
+        <v>189</v>
+      </c>
+      <c r="B190" s="8" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C190" s="8" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="11">
+        <f t="shared" si="2"/>
+        <v>190</v>
+      </c>
+      <c r="B191" s="8" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C191" s="8" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="11">
+        <f t="shared" si="2"/>
+        <v>191</v>
+      </c>
+      <c r="B192" s="8" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C192" s="8" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="11">
+        <f t="shared" si="2"/>
+        <v>192</v>
+      </c>
+      <c r="B193" s="8" t="s">
+        <v>1477</v>
+      </c>
+      <c r="C193" s="8" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="11">
+        <f t="shared" si="2"/>
+        <v>193</v>
+      </c>
+      <c r="B194" s="8" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C194" s="8" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="11">
+        <f t="shared" ref="A195:A258" si="3">IF(C195&lt;&gt;"",ROW(A194),"")</f>
+        <v>194</v>
+      </c>
+      <c r="B195" s="8" t="s">
+        <v>1481</v>
+      </c>
+      <c r="C195" s="8" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="11">
+        <f t="shared" si="3"/>
+        <v>195</v>
+      </c>
+      <c r="B196" s="8" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C196" s="8" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="11">
+        <f t="shared" si="3"/>
+        <v>196</v>
+      </c>
+      <c r="B197" s="8" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C197" s="8" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="11">
+        <f t="shared" si="3"/>
+        <v>197</v>
+      </c>
+      <c r="B198" s="8" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C198" s="8" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="11">
+        <f t="shared" si="3"/>
+        <v>198</v>
+      </c>
+      <c r="B199" s="8" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C199" s="8" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="11">
+        <f t="shared" si="3"/>
+        <v>199</v>
+      </c>
+      <c r="B200" s="8" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C200" s="8" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="11">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="B201" s="8" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C201" s="8" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="11">
+        <f t="shared" si="3"/>
+        <v>201</v>
+      </c>
+      <c r="B202" s="8" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C202" s="8" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="11">
+        <f t="shared" si="3"/>
+        <v>202</v>
+      </c>
+      <c r="B203" s="8" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C203" s="8" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="11">
+        <f t="shared" si="3"/>
+        <v>203</v>
+      </c>
+      <c r="B204" s="8" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C204" s="8" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="11">
+        <f t="shared" si="3"/>
+        <v>204</v>
+      </c>
+      <c r="B205" s="8" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C205" s="8" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="11">
+        <f t="shared" si="3"/>
+        <v>205</v>
+      </c>
+      <c r="B206" s="8" t="s">
+        <v>1502</v>
+      </c>
+      <c r="C206" s="8" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="11">
+        <f t="shared" si="3"/>
+        <v>206</v>
+      </c>
+      <c r="B207" s="8" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C207" s="8" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="11">
+        <f t="shared" si="3"/>
+        <v>207</v>
+      </c>
+      <c r="B208" s="8" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C208" s="8" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="11">
+        <f t="shared" si="3"/>
+        <v>208</v>
+      </c>
+      <c r="B209" s="8" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C209" s="8" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="11">
+        <f t="shared" si="3"/>
+        <v>209</v>
+      </c>
+      <c r="B210" s="8" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C210" s="8" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="11">
+        <f t="shared" si="3"/>
+        <v>210</v>
+      </c>
+      <c r="B211" s="8" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C211" s="8" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="11">
+        <f t="shared" si="3"/>
+        <v>211</v>
+      </c>
+      <c r="B212" s="8" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C212" s="8" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="11">
+        <f t="shared" si="3"/>
+        <v>212</v>
+      </c>
+      <c r="B213" s="8" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C213" s="8" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="11">
+        <f t="shared" si="3"/>
+        <v>213</v>
+      </c>
+      <c r="B214" s="8" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C214" s="8" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="11">
+        <f t="shared" si="3"/>
+        <v>214</v>
+      </c>
+      <c r="B215" s="8" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C215" s="8" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="11">
+        <f t="shared" si="3"/>
+        <v>215</v>
+      </c>
+      <c r="B216" s="8" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C216" s="8" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="11">
+        <f t="shared" si="3"/>
+        <v>216</v>
+      </c>
+      <c r="B217" s="8" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C217" s="8" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="11">
+        <f t="shared" si="3"/>
+        <v>217</v>
+      </c>
+      <c r="B218" s="8" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C218" s="8" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="11">
+        <f t="shared" si="3"/>
+        <v>218</v>
+      </c>
+      <c r="B219" s="8" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C219" s="8" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="11">
+        <f t="shared" si="3"/>
+        <v>219</v>
+      </c>
+      <c r="B220" s="8" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C220" s="8" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="11">
+        <f t="shared" si="3"/>
+        <v>220</v>
+      </c>
+      <c r="B221" s="8" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C221" s="8" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="11">
+        <f t="shared" si="3"/>
+        <v>221</v>
+      </c>
+      <c r="B222" s="8" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C222" s="8" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="11">
+        <f t="shared" si="3"/>
+        <v>222</v>
+      </c>
+      <c r="B223" s="8" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C223" s="8" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="11">
+        <f t="shared" si="3"/>
+        <v>223</v>
+      </c>
+      <c r="B224" s="8" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C224" s="8" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="11">
+        <f t="shared" si="3"/>
+        <v>224</v>
+      </c>
+      <c r="B225" s="8" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C225" s="8" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="11">
+        <f t="shared" si="3"/>
+        <v>225</v>
+      </c>
+      <c r="B226" s="8" t="s">
+        <v>1541</v>
+      </c>
+      <c r="C226" s="8" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="11">
+        <f t="shared" si="3"/>
+        <v>226</v>
+      </c>
+      <c r="B227" s="8" t="s">
+        <v>1543</v>
+      </c>
+      <c r="C227" s="8" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="11">
+        <f t="shared" si="3"/>
+        <v>227</v>
+      </c>
+      <c r="B228" s="8" t="s">
+        <v>1477</v>
+      </c>
+      <c r="C228" s="8" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="11">
+        <f t="shared" si="3"/>
+        <v>228</v>
+      </c>
+      <c r="B229" s="8" t="s">
+        <v>1546</v>
+      </c>
+      <c r="C229" s="8" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="11">
+        <f t="shared" si="3"/>
+        <v>229</v>
+      </c>
+      <c r="B230" s="8" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C230" s="8" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="11">
+        <f t="shared" si="3"/>
+        <v>230</v>
+      </c>
+      <c r="B231" s="8" t="s">
+        <v>1550</v>
+      </c>
+      <c r="C231" s="8" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="11">
+        <f t="shared" si="3"/>
+        <v>231</v>
+      </c>
+      <c r="B232" s="8" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C232" s="8" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="11">
+        <f t="shared" si="3"/>
+        <v>232</v>
+      </c>
+      <c r="B233" s="8" t="s">
+        <v>1554</v>
+      </c>
+      <c r="C233" s="8" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="11">
+        <f t="shared" si="3"/>
+        <v>233</v>
+      </c>
+      <c r="B234" s="8" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C234" s="8" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="11">
+        <f t="shared" si="3"/>
+        <v>234</v>
+      </c>
+      <c r="B235" s="8" t="s">
+        <v>1558</v>
+      </c>
+      <c r="C235" s="8" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="11">
+        <f t="shared" si="3"/>
+        <v>235</v>
+      </c>
+      <c r="B236" s="8" t="s">
+        <v>1560</v>
+      </c>
+      <c r="C236" s="8" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="11">
+        <f t="shared" si="3"/>
+        <v>236</v>
+      </c>
+      <c r="B237" s="8" t="s">
+        <v>1562</v>
+      </c>
+      <c r="C237" s="8" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="11">
+        <f t="shared" si="3"/>
+        <v>237</v>
+      </c>
+      <c r="B238" s="8" t="s">
+        <v>1564</v>
+      </c>
+      <c r="C238" s="8" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="11">
+        <f t="shared" si="3"/>
+        <v>238</v>
+      </c>
+      <c r="B239" s="8" t="s">
+        <v>1566</v>
+      </c>
+      <c r="C239" s="8" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="11">
+        <f t="shared" si="3"/>
+        <v>239</v>
+      </c>
+      <c r="B240" s="8" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C240" s="8" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" s="11">
+        <f t="shared" si="3"/>
+        <v>240</v>
+      </c>
+      <c r="B241" s="8" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C241" s="8" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" s="11">
+        <f t="shared" si="3"/>
+        <v>241</v>
+      </c>
+      <c r="B242" s="8" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C242" s="8" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" s="11">
+        <f t="shared" si="3"/>
+        <v>242</v>
+      </c>
+      <c r="B243" s="8" t="s">
+        <v>1574</v>
+      </c>
+      <c r="C243" s="8" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" s="11">
+        <f t="shared" si="3"/>
+        <v>243</v>
+      </c>
+      <c r="B244" s="8" t="s">
+        <v>1576</v>
+      </c>
+      <c r="C244" s="8" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" s="11">
+        <f t="shared" si="3"/>
+        <v>244</v>
+      </c>
+      <c r="B245" s="8" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C245" s="8" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" s="11">
+        <f t="shared" si="3"/>
+        <v>245</v>
+      </c>
+      <c r="B246" s="8" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C246" s="8" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" s="11">
+        <f t="shared" si="3"/>
+        <v>246</v>
+      </c>
+      <c r="B247" s="8" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C247" s="8" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" s="11">
+        <f t="shared" si="3"/>
+        <v>247</v>
+      </c>
+      <c r="B248" s="8" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C248" s="8" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" s="11">
+        <f t="shared" si="3"/>
+        <v>248</v>
+      </c>
+      <c r="B249" s="8" t="s">
+        <v>1585</v>
+      </c>
+      <c r="C249" s="8" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" s="11">
+        <f t="shared" si="3"/>
+        <v>249</v>
+      </c>
+      <c r="B250" s="8" t="s">
+        <v>1587</v>
+      </c>
+      <c r="C250" s="8" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" s="11">
+        <f t="shared" si="3"/>
+        <v>250</v>
+      </c>
+      <c r="B251" s="8" t="s">
+        <v>1589</v>
+      </c>
+      <c r="C251" s="8" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" s="11">
+        <f t="shared" si="3"/>
+        <v>251</v>
+      </c>
+      <c r="B252" s="8" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C252" s="8" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" s="11">
+        <f t="shared" si="3"/>
+        <v>252</v>
+      </c>
+      <c r="B253" s="8" t="s">
+        <v>1592</v>
+      </c>
+      <c r="C253" s="8" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" s="11">
+        <f t="shared" si="3"/>
+        <v>253</v>
+      </c>
+      <c r="B254" s="8" t="s">
+        <v>1594</v>
+      </c>
+      <c r="C254" s="8" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" s="11">
+        <f t="shared" si="3"/>
+        <v>254</v>
+      </c>
+      <c r="B255" s="8" t="s">
+        <v>1596</v>
+      </c>
+      <c r="C255" s="8" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" s="11">
+        <f t="shared" si="3"/>
+        <v>255</v>
+      </c>
+      <c r="B256" s="8" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C256" s="8" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" s="11">
+        <f t="shared" si="3"/>
+        <v>256</v>
+      </c>
+      <c r="B257" s="8" t="s">
+        <v>1599</v>
+      </c>
+      <c r="C257" s="8" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" s="11">
+        <f t="shared" si="3"/>
+        <v>257</v>
+      </c>
+      <c r="B258" s="8" t="s">
+        <v>1601</v>
+      </c>
+      <c r="C258" s="8" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" s="11">
+        <f t="shared" ref="A259:A322" si="4">IF(C259&lt;&gt;"",ROW(A258),"")</f>
+        <v>258</v>
+      </c>
+      <c r="B259" s="8" t="s">
+        <v>1603</v>
+      </c>
+      <c r="C259" s="8" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" s="11">
+        <f t="shared" si="4"/>
+        <v>259</v>
+      </c>
+      <c r="B260" s="8" t="s">
+        <v>1605</v>
+      </c>
+      <c r="C260" s="8" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" s="11">
+        <f t="shared" si="4"/>
+        <v>260</v>
+      </c>
+      <c r="B261" s="8" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C261" s="8" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" s="11">
+        <f t="shared" si="4"/>
+        <v>261</v>
+      </c>
+      <c r="B262" s="8" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C262" s="8" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" s="11">
+        <f t="shared" si="4"/>
+        <v>262</v>
+      </c>
+      <c r="B263" s="8" t="s">
+        <v>1611</v>
+      </c>
+      <c r="C263" s="8" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" s="11">
+        <f t="shared" si="4"/>
+        <v>263</v>
+      </c>
+      <c r="B264" s="8" t="s">
+        <v>1613</v>
+      </c>
+      <c r="C264" s="8" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" s="11">
+        <f t="shared" si="4"/>
+        <v>264</v>
+      </c>
+      <c r="B265" s="8" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C265" s="8" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" s="11">
+        <f t="shared" si="4"/>
+        <v>265</v>
+      </c>
+      <c r="B266" s="8" t="s">
+        <v>1617</v>
+      </c>
+      <c r="C266" s="8" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" s="11">
+        <f t="shared" si="4"/>
+        <v>266</v>
+      </c>
+      <c r="B267" s="8" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C267" s="8" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" s="11">
+        <f t="shared" si="4"/>
+        <v>267</v>
+      </c>
+      <c r="B268" s="8" t="s">
+        <v>1621</v>
+      </c>
+      <c r="C268" s="8" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" s="11">
+        <f t="shared" si="4"/>
+        <v>268</v>
+      </c>
+      <c r="B269" s="8" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C269" s="8" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" s="11">
+        <f t="shared" si="4"/>
+        <v>269</v>
+      </c>
+      <c r="B270" s="8" t="s">
+        <v>1625</v>
+      </c>
+      <c r="C270" s="8" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" s="11">
+        <f t="shared" si="4"/>
+        <v>270</v>
+      </c>
+      <c r="B271" s="8" t="s">
+        <v>1627</v>
+      </c>
+      <c r="C271" s="8" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" s="11">
+        <f t="shared" si="4"/>
+        <v>271</v>
+      </c>
+      <c r="B272" s="8" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C272" s="8" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" s="11">
+        <f t="shared" si="4"/>
+        <v>272</v>
+      </c>
+      <c r="B273" s="8" t="s">
+        <v>1631</v>
+      </c>
+      <c r="C273" s="8" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" s="11">
+        <f t="shared" si="4"/>
+        <v>273</v>
+      </c>
+      <c r="B274" s="8" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C274" s="8" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" s="11">
+        <f t="shared" si="4"/>
+        <v>274</v>
+      </c>
+      <c r="B275" s="8" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C275" s="8" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" s="11">
+        <f t="shared" si="4"/>
+        <v>275</v>
+      </c>
+      <c r="B276" s="8" t="s">
+        <v>1637</v>
+      </c>
+      <c r="C276" s="8" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" s="11">
+        <f t="shared" si="4"/>
+        <v>276</v>
+      </c>
+      <c r="B277" s="8" t="s">
+        <v>1627</v>
+      </c>
+      <c r="C277" s="8" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" s="11">
+        <f t="shared" si="4"/>
+        <v>277</v>
+      </c>
+      <c r="B278" s="8" t="s">
+        <v>1640</v>
+      </c>
+      <c r="C278" s="8" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" s="11">
+        <f t="shared" si="4"/>
+        <v>278</v>
+      </c>
+      <c r="B279" s="8" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C279" s="8" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" s="11">
+        <f t="shared" si="4"/>
+        <v>279</v>
+      </c>
+      <c r="B280" s="8" t="s">
+        <v>1644</v>
+      </c>
+      <c r="C280" s="8" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" s="11">
+        <f t="shared" si="4"/>
+        <v>280</v>
+      </c>
+      <c r="B281" s="8" t="s">
+        <v>1646</v>
+      </c>
+      <c r="C281" s="8" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" s="11">
+        <f t="shared" si="4"/>
+        <v>281</v>
+      </c>
+      <c r="B282" s="8" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C282" s="8" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" s="11">
+        <f t="shared" si="4"/>
+        <v>282</v>
+      </c>
+      <c r="B283" s="8" t="s">
+        <v>1649</v>
+      </c>
+      <c r="C283" s="8" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" s="11">
+        <f t="shared" si="4"/>
+        <v>283</v>
+      </c>
+      <c r="B284" s="8" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C284" s="8" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" s="11">
+        <f t="shared" si="4"/>
+        <v>284</v>
+      </c>
+      <c r="B285" s="8" t="s">
+        <v>1653</v>
+      </c>
+      <c r="C285" s="8" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" s="11">
+        <f t="shared" si="4"/>
+        <v>285</v>
+      </c>
+      <c r="B286" s="8" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C286" s="8" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" s="11">
+        <f t="shared" si="4"/>
+        <v>286</v>
+      </c>
+      <c r="B287" s="8" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C287" s="8" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" s="11">
+        <f t="shared" si="4"/>
+        <v>287</v>
+      </c>
+      <c r="B288" s="8" t="s">
+        <v>1658</v>
+      </c>
+      <c r="C288" s="8" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" s="11">
+        <f t="shared" si="4"/>
+        <v>288</v>
+      </c>
+      <c r="B289" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C289" s="8" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" s="11">
+        <f t="shared" si="4"/>
+        <v>289</v>
+      </c>
+      <c r="B290" s="8" t="s">
+        <v>1661</v>
+      </c>
+      <c r="C290" s="8" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" s="11">
+        <f t="shared" si="4"/>
+        <v>290</v>
+      </c>
+      <c r="B291" s="8" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C291" s="8" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" s="11">
+        <f t="shared" si="4"/>
+        <v>291</v>
+      </c>
+      <c r="B292" s="8" t="s">
+        <v>1665</v>
+      </c>
+      <c r="C292" s="8" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" s="11">
+        <f t="shared" si="4"/>
+        <v>292</v>
+      </c>
+      <c r="B293" s="8" t="s">
+        <v>1667</v>
+      </c>
+      <c r="C293" s="8" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" s="11">
+        <f t="shared" si="4"/>
+        <v>293</v>
+      </c>
+      <c r="B294" s="8" t="s">
+        <v>1669</v>
+      </c>
+      <c r="C294" s="8" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" s="11">
+        <f t="shared" si="4"/>
+        <v>294</v>
+      </c>
+      <c r="B295" s="8" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C295" s="8" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" s="11">
+        <f t="shared" si="4"/>
+        <v>295</v>
+      </c>
+      <c r="B296" s="8" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C296" s="8" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" s="11">
+        <f t="shared" si="4"/>
+        <v>296</v>
+      </c>
+      <c r="B297" s="8" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C297" s="8" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" s="11">
+        <f t="shared" si="4"/>
+        <v>297</v>
+      </c>
+      <c r="B298" s="8" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C298" s="8" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" s="11">
+        <f t="shared" si="4"/>
+        <v>298</v>
+      </c>
+      <c r="B299" s="8" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C299" s="8" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" s="11">
+        <f t="shared" si="4"/>
+        <v>299</v>
+      </c>
+      <c r="B300" s="8" t="s">
+        <v>1681</v>
+      </c>
+      <c r="C300" s="8" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" s="11">
+        <f t="shared" si="4"/>
+        <v>300</v>
+      </c>
+      <c r="B301" s="8" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C301" s="8" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" s="11">
+        <f t="shared" si="4"/>
+        <v>301</v>
+      </c>
+      <c r="B302" s="8" t="s">
+        <v>1661</v>
+      </c>
+      <c r="C302" s="8" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" s="11">
+        <f t="shared" si="4"/>
+        <v>302</v>
+      </c>
+      <c r="B303" s="8" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C303" s="8" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" s="11">
+        <f t="shared" si="4"/>
+        <v>303</v>
+      </c>
+      <c r="B304" s="8" t="s">
+        <v>1688</v>
+      </c>
+      <c r="C304" s="8" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" s="11">
+        <f t="shared" si="4"/>
+        <v>304</v>
+      </c>
+      <c r="B305" s="8" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C305" s="8" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" s="11">
+        <f t="shared" si="4"/>
+        <v>305</v>
+      </c>
+      <c r="B306" s="8" t="s">
+        <v>1691</v>
+      </c>
+      <c r="C306" s="8" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307" s="11">
+        <f t="shared" si="4"/>
+        <v>306</v>
+      </c>
+      <c r="B307" s="8" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C307" s="8" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" s="11">
+        <f t="shared" si="4"/>
+        <v>307</v>
+      </c>
+      <c r="B308" s="8" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C308" s="8" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" s="11">
+        <f t="shared" si="4"/>
+        <v>308</v>
+      </c>
+      <c r="B309" s="8" t="s">
+        <v>1697</v>
+      </c>
+      <c r="C309" s="8" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" s="11">
+        <f t="shared" si="4"/>
+        <v>309</v>
+      </c>
+      <c r="B310" s="8" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C310" s="8" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" s="11">
+        <f t="shared" si="4"/>
+        <v>310</v>
+      </c>
+      <c r="B311" s="8" t="s">
+        <v>1701</v>
+      </c>
+      <c r="C311" s="8" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312" s="11">
+        <f t="shared" si="4"/>
+        <v>311</v>
+      </c>
+      <c r="B312" s="8" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C312" s="8" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313" s="11">
+        <f t="shared" si="4"/>
+        <v>312</v>
+      </c>
+      <c r="B313" s="8" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C313" s="8" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314" s="11">
+        <f t="shared" si="4"/>
+        <v>313</v>
+      </c>
+      <c r="B314" s="8" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C314" s="8" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315" s="11">
+        <f t="shared" si="4"/>
+        <v>314</v>
+      </c>
+      <c r="B315" s="8" t="s">
+        <v>1709</v>
+      </c>
+      <c r="C315" s="8" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316" s="11">
+        <f t="shared" si="4"/>
+        <v>315</v>
+      </c>
+      <c r="B316" s="8" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C316" s="8" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317" s="11">
+        <f t="shared" si="4"/>
+        <v>316</v>
+      </c>
+      <c r="B317" s="8" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C317" s="8" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318" s="11">
+        <f t="shared" si="4"/>
+        <v>317</v>
+      </c>
+      <c r="B318" s="8" t="s">
+        <v>1714</v>
+      </c>
+      <c r="C318" s="8" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319" s="11">
+        <f t="shared" si="4"/>
+        <v>318</v>
+      </c>
+      <c r="B319" s="8" t="s">
+        <v>1716</v>
+      </c>
+      <c r="C319" s="8" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320" s="11">
+        <f t="shared" si="4"/>
+        <v>319</v>
+      </c>
+      <c r="B320" s="8" t="s">
+        <v>1718</v>
+      </c>
+      <c r="C320" s="8" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321" s="11">
+        <f t="shared" si="4"/>
+        <v>320</v>
+      </c>
+      <c r="B321" s="8" t="s">
+        <v>1720</v>
+      </c>
+      <c r="C321" s="8" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322" s="11">
+        <f t="shared" si="4"/>
+        <v>321</v>
+      </c>
+      <c r="B322" s="8" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C322" s="8" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" s="11">
+        <f t="shared" ref="A323:A386" si="5">IF(C323&lt;&gt;"",ROW(A322),"")</f>
+        <v>322</v>
+      </c>
+      <c r="B323" s="8" t="s">
+        <v>1724</v>
+      </c>
+      <c r="C323" s="8" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324" s="11">
+        <f t="shared" si="5"/>
+        <v>323</v>
+      </c>
+      <c r="B324" s="8" t="s">
+        <v>1726</v>
+      </c>
+      <c r="C324" s="8" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325" s="11">
+        <f t="shared" si="5"/>
+        <v>324</v>
+      </c>
+      <c r="B325" s="8" t="s">
+        <v>1728</v>
+      </c>
+      <c r="C325" s="8" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326" s="11">
+        <f t="shared" si="5"/>
+        <v>325</v>
+      </c>
+      <c r="B326" s="8" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C326" s="8" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327" s="11">
+        <f t="shared" si="5"/>
+        <v>326</v>
+      </c>
+      <c r="B327" s="8" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C327" s="8" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328" s="11">
+        <f t="shared" si="5"/>
+        <v>327</v>
+      </c>
+      <c r="B328" s="8" t="s">
+        <v>1734</v>
+      </c>
+      <c r="C328" s="8" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329" s="11">
+        <f t="shared" si="5"/>
+        <v>328</v>
+      </c>
+      <c r="B329" s="8" t="s">
+        <v>1736</v>
+      </c>
+      <c r="C329" s="8" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330" s="11">
+        <f t="shared" si="5"/>
+        <v>329</v>
+      </c>
+      <c r="B330" s="8" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C330" s="8" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331" s="11">
+        <f t="shared" si="5"/>
+        <v>330</v>
+      </c>
+      <c r="B331" s="8" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C331" s="8" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332" s="11">
+        <f t="shared" si="5"/>
+        <v>331</v>
+      </c>
+      <c r="B332" s="8" t="s">
+        <v>1742</v>
+      </c>
+      <c r="C332" s="8" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333" s="11">
+        <f t="shared" si="5"/>
+        <v>332</v>
+      </c>
+      <c r="B333" s="8" t="s">
+        <v>1744</v>
+      </c>
+      <c r="C333" s="8" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334" s="11">
+        <f t="shared" si="5"/>
+        <v>333</v>
+      </c>
+      <c r="B334" s="8" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C334" s="8" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335" s="11">
+        <f t="shared" si="5"/>
+        <v>334</v>
+      </c>
+      <c r="B335" s="8" t="s">
+        <v>1748</v>
+      </c>
+      <c r="C335" s="8" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336" s="11">
+        <f t="shared" si="5"/>
+        <v>335</v>
+      </c>
+      <c r="B336" s="8" t="s">
+        <v>1750</v>
+      </c>
+      <c r="C336" s="8" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337" s="11">
+        <f t="shared" si="5"/>
+        <v>336</v>
+      </c>
+      <c r="B337" s="8" t="s">
+        <v>1752</v>
+      </c>
+      <c r="C337" s="8" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338" s="11">
+        <f t="shared" si="5"/>
+        <v>337</v>
+      </c>
+      <c r="B338" s="8" t="s">
+        <v>1754</v>
+      </c>
+      <c r="C338" s="8" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339" s="11">
+        <f t="shared" si="5"/>
+        <v>338</v>
+      </c>
+      <c r="B339" s="8" t="s">
+        <v>1756</v>
+      </c>
+      <c r="C339" s="8" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340" s="11">
+        <f t="shared" si="5"/>
+        <v>339</v>
+      </c>
+      <c r="B340" s="8" t="s">
+        <v>1758</v>
+      </c>
+      <c r="C340" s="8" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341" s="11">
+        <f t="shared" si="5"/>
+        <v>340</v>
+      </c>
+      <c r="B341" s="8" t="s">
+        <v>1760</v>
+      </c>
+      <c r="C341" s="8" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342" s="11">
+        <f t="shared" si="5"/>
+        <v>341</v>
+      </c>
+      <c r="B342" s="8" t="s">
+        <v>1762</v>
+      </c>
+      <c r="C342" s="8" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343" s="11">
+        <f t="shared" si="5"/>
+        <v>342</v>
+      </c>
+      <c r="B343" s="8" t="s">
+        <v>1764</v>
+      </c>
+      <c r="C343" s="8" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344" s="11">
+        <f t="shared" si="5"/>
+        <v>343</v>
+      </c>
+      <c r="B344" s="8" t="s">
+        <v>1766</v>
+      </c>
+      <c r="C344" s="8" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345" s="11">
+        <f t="shared" si="5"/>
+        <v>344</v>
+      </c>
+      <c r="B345" s="8" t="s">
+        <v>1754</v>
+      </c>
+      <c r="C345" s="8" t="s">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346" s="11">
+        <f t="shared" si="5"/>
+        <v>345</v>
+      </c>
+      <c r="B346" s="8" t="s">
+        <v>1769</v>
+      </c>
+      <c r="C346" s="8" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347" s="11">
+        <f t="shared" si="5"/>
+        <v>346</v>
+      </c>
+      <c r="B347" s="8" t="s">
+        <v>1771</v>
+      </c>
+      <c r="C347" s="8" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348" s="11">
+        <f t="shared" si="5"/>
+        <v>347</v>
+      </c>
+      <c r="B348" s="8" t="s">
+        <v>1773</v>
+      </c>
+      <c r="C348" s="8" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349" s="11">
+        <f t="shared" si="5"/>
+        <v>348</v>
+      </c>
+      <c r="B349" s="8" t="s">
+        <v>1775</v>
+      </c>
+      <c r="C349" s="8" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350" s="11">
+        <f t="shared" si="5"/>
+        <v>349</v>
+      </c>
+      <c r="B350" s="8" t="s">
+        <v>704</v>
+      </c>
+      <c r="C350" s="8" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351" s="11">
+        <f t="shared" si="5"/>
+        <v>350</v>
+      </c>
+      <c r="B351" s="8" t="s">
+        <v>1778</v>
+      </c>
+      <c r="C351" s="8" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352" s="11">
+        <f t="shared" si="5"/>
+        <v>351</v>
+      </c>
+      <c r="B352" s="8" t="s">
+        <v>1780</v>
+      </c>
+      <c r="C352" s="8" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353" s="11">
+        <f t="shared" si="5"/>
+        <v>352</v>
+      </c>
+      <c r="B353" s="8" t="s">
+        <v>1782</v>
+      </c>
+      <c r="C353" s="8" t="s">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354" s="11">
+        <f t="shared" si="5"/>
+        <v>353</v>
+      </c>
+      <c r="B354" s="8" t="s">
+        <v>1784</v>
+      </c>
+      <c r="C354" s="8" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355" s="11">
+        <f t="shared" si="5"/>
+        <v>354</v>
+      </c>
+      <c r="B355" s="8" t="s">
+        <v>1786</v>
+      </c>
+      <c r="C355" s="8" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356" s="11">
+        <f t="shared" si="5"/>
+        <v>355</v>
+      </c>
+      <c r="B356" s="8" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C356" s="8" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357" s="11">
+        <f t="shared" si="5"/>
+        <v>356</v>
+      </c>
+      <c r="B357" s="8" t="s">
+        <v>1790</v>
+      </c>
+      <c r="C357" s="8" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358" s="11">
+        <f t="shared" si="5"/>
+        <v>357</v>
+      </c>
+      <c r="B358" s="8" t="s">
+        <v>1792</v>
+      </c>
+      <c r="C358" s="8" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359" s="11">
+        <f t="shared" si="5"/>
+        <v>358</v>
+      </c>
+      <c r="B359" s="8" t="s">
+        <v>1794</v>
+      </c>
+      <c r="C359" s="8" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360" s="11">
+        <f t="shared" si="5"/>
+        <v>359</v>
+      </c>
+      <c r="B360" s="8" t="s">
+        <v>1796</v>
+      </c>
+      <c r="C360" s="8" t="s">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361" s="11">
+        <f t="shared" si="5"/>
+        <v>360</v>
+      </c>
+      <c r="B361" s="8" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C361" s="8" t="s">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362" s="11">
+        <f t="shared" si="5"/>
+        <v>361</v>
+      </c>
+      <c r="B362" s="8" t="s">
+        <v>1800</v>
+      </c>
+      <c r="C362" s="8" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363" s="11">
+        <f t="shared" si="5"/>
+        <v>362</v>
+      </c>
+      <c r="B363" s="8" t="s">
+        <v>1802</v>
+      </c>
+      <c r="C363" s="8" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364" s="11">
+        <f t="shared" si="5"/>
+        <v>363</v>
+      </c>
+      <c r="B364" s="8" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C364" s="8" t="s">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365" s="11">
+        <f t="shared" si="5"/>
+        <v>364</v>
+      </c>
+      <c r="B365" s="8" t="s">
+        <v>1806</v>
+      </c>
+      <c r="C365" s="8" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366" s="11">
+        <f t="shared" si="5"/>
+        <v>365</v>
+      </c>
+      <c r="B366" s="8" t="s">
+        <v>1808</v>
+      </c>
+      <c r="C366" s="8" t="s">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367" s="11">
+        <f t="shared" si="5"/>
+        <v>366</v>
+      </c>
+      <c r="B367" s="8" t="s">
+        <v>1810</v>
+      </c>
+      <c r="C367" s="8" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368" s="11">
+        <f t="shared" si="5"/>
+        <v>367</v>
+      </c>
+      <c r="B368" s="8" t="s">
+        <v>1812</v>
+      </c>
+      <c r="C368" s="8" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369" s="11">
+        <f t="shared" si="5"/>
+        <v>368</v>
+      </c>
+      <c r="B369" s="8" t="s">
+        <v>1814</v>
+      </c>
+      <c r="C369" s="8" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370" s="11">
+        <f t="shared" si="5"/>
+        <v>369</v>
+      </c>
+      <c r="B370" s="8" t="s">
+        <v>1816</v>
+      </c>
+      <c r="C370" s="8" t="s">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371" s="11">
+        <f t="shared" si="5"/>
+        <v>370</v>
+      </c>
+      <c r="B371" s="8" t="s">
+        <v>1818</v>
+      </c>
+      <c r="C371" s="8" t="s">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372" s="11">
+        <f t="shared" si="5"/>
+        <v>371</v>
+      </c>
+      <c r="B372" s="8" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C372" s="8" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373" s="11">
+        <f t="shared" si="5"/>
+        <v>372</v>
+      </c>
+      <c r="B373" s="8" t="s">
+        <v>1822</v>
+      </c>
+      <c r="C373" s="8" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374" s="11">
+        <f t="shared" si="5"/>
+        <v>373</v>
+      </c>
+      <c r="B374" s="8" t="s">
+        <v>1824</v>
+      </c>
+      <c r="C374" s="8" t="s">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375" s="11">
+        <f t="shared" si="5"/>
+        <v>374</v>
+      </c>
+      <c r="B375" s="8" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C375" s="8" t="s">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376" s="11">
+        <f t="shared" si="5"/>
+        <v>375</v>
+      </c>
+      <c r="B376" s="8" t="s">
+        <v>1828</v>
+      </c>
+      <c r="C376" s="8" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377" s="11">
+        <f t="shared" si="5"/>
+        <v>376</v>
+      </c>
+      <c r="B377" s="8" t="s">
+        <v>1830</v>
+      </c>
+      <c r="C377" s="8" t="s">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378" s="11">
+        <f t="shared" si="5"/>
+        <v>377</v>
+      </c>
+      <c r="B378" s="8" t="s">
+        <v>1832</v>
+      </c>
+      <c r="C378" s="8" t="s">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379" s="11">
+        <f t="shared" si="5"/>
+        <v>378</v>
+      </c>
+      <c r="B379" s="8" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C379" s="8" t="s">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380" s="11">
+        <f t="shared" si="5"/>
+        <v>379</v>
+      </c>
+      <c r="B380" s="8" t="s">
+        <v>1835</v>
+      </c>
+      <c r="C380" s="8" t="s">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381" s="11">
+        <f t="shared" si="5"/>
+        <v>380</v>
+      </c>
+      <c r="B381" s="8" t="s">
+        <v>1837</v>
+      </c>
+      <c r="C381" s="8" t="s">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382" s="11">
+        <f t="shared" si="5"/>
+        <v>381</v>
+      </c>
+      <c r="B382" s="8" t="s">
+        <v>1839</v>
+      </c>
+      <c r="C382" s="8" t="s">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383" s="11">
+        <f t="shared" si="5"/>
+        <v>382</v>
+      </c>
+      <c r="B383" s="8" t="s">
+        <v>1841</v>
+      </c>
+      <c r="C383" s="8" t="s">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384" s="11">
+        <f t="shared" si="5"/>
+        <v>383</v>
+      </c>
+      <c r="B384" s="8" t="s">
+        <v>1843</v>
+      </c>
+      <c r="C384" s="8" t="s">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385" s="11">
+        <f t="shared" si="5"/>
+        <v>384</v>
+      </c>
+      <c r="B385" s="8" t="s">
+        <v>1845</v>
+      </c>
+      <c r="C385" s="8" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386" s="11">
+        <f t="shared" si="5"/>
+        <v>385</v>
+      </c>
+      <c r="B386" s="8" t="s">
+        <v>1847</v>
+      </c>
+      <c r="C386" s="8" t="s">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387" s="11">
+        <f t="shared" ref="A387:A450" si="6">IF(C387&lt;&gt;"",ROW(A386),"")</f>
+        <v>386</v>
+      </c>
+      <c r="B387" s="8" t="s">
+        <v>1849</v>
+      </c>
+      <c r="C387" s="8" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388" s="11">
+        <f t="shared" si="6"/>
+        <v>387</v>
+      </c>
+      <c r="B388" s="8" t="s">
+        <v>1851</v>
+      </c>
+      <c r="C388" s="8" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389" s="11">
+        <f t="shared" si="6"/>
+        <v>388</v>
+      </c>
+      <c r="B389" s="8" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C389" s="8" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390" s="11">
+        <f t="shared" si="6"/>
+        <v>389</v>
+      </c>
+      <c r="B390" s="8" t="s">
+        <v>1854</v>
+      </c>
+      <c r="C390" s="8" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A398" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A400" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A401" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A402" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A403" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A404" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A405" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A406" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A407" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A408" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A409" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A410" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A411" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A412" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A413" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A414" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A415" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A416" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A417" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A418" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A419" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A420" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A421" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A422" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A423" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A424" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A425" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A426" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A427" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A428" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A429" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A430" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A431" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A432" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A433" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A434" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A435" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A436" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A437" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A438" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A439" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A440" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A441" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A442" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A443" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A444" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A445" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A446" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A447" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A448" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A449" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A450" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A451" s="11" t="str">
+        <f t="shared" ref="A451:A514" si="7">IF(C451&lt;&gt;"",ROW(A450),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A452" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A453" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A454" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A455" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A456" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A457" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A458" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A459" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A460" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A461" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A462" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A463" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A464" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A465" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A466" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A467" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A468" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A469" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A470" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A471" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A472" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A473" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A474" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A475" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A476" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A477" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A478" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A479" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A480" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A481" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A482" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A483" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A484" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A485" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A486" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A487" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A488" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A489" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A490" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A491" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A492" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A493" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A494" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A495" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A496" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A497" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A498" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A499" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A500" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A501" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A502" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A503" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A504" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A505" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A506" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A507" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A508" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A509" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A510" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A511" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A512" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A513" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A514" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A515" s="11" t="str">
+        <f t="shared" ref="A515" si="8">IF(C515&lt;&gt;"",ROW(A514),"")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>